--- a/data/distance_angle/kkk.xlsx
+++ b/data/distance_angle/kkk.xlsx
@@ -433,7 +433,7 @@
         <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001396430887432538</v>
+        <v>0.0001285523019116596</v>
       </c>
       <c r="H2" t="n">
         <v>0.06764705882352941</v>
@@ -442,7 +442,7 @@
         <v>627.4791039</v>
       </c>
       <c r="J2" t="n">
-        <v>18.58500424091381</v>
+        <v>17.83170497808674</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         <v>45</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001667473852977984</v>
+        <v>0.000153503910653208</v>
       </c>
       <c r="H3" t="n">
         <v>0.06372549019607843</v>
@@ -474,7 +474,7 @@
         <v>627.4791039</v>
       </c>
       <c r="J3" t="n">
-        <v>20.30945734620371</v>
+        <v>19.48626144864061</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +497,7 @@
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002072132519783985</v>
+        <v>0.0001907558817851683</v>
       </c>
       <c r="H4" t="n">
         <v>0.07254901960784313</v>
@@ -506,7 +506,7 @@
         <v>626.0367014</v>
       </c>
       <c r="J4" t="n">
-        <v>22.58860573237</v>
+        <v>21.67302993664185</v>
       </c>
     </row>
     <row r="5">
@@ -529,7 +529,7 @@
         <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002187658930350016</v>
+        <v>0.0002013909845629076</v>
       </c>
       <c r="H5" t="n">
         <v>0.06666666666666667</v>
@@ -538,7 +538,7 @@
         <v>627.4791039</v>
       </c>
       <c r="J5" t="n">
-        <v>23.26359036042888</v>
+        <v>22.32065565661843</v>
       </c>
     </row>
     <row r="6">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002201673544724423</v>
+        <v>0.0002026811385937646</v>
       </c>
       <c r="H6" t="n">
         <v>0.07254901960784313</v>
@@ -570,7 +570,7 @@
         <v>626.0367014</v>
       </c>
       <c r="J6" t="n">
-        <v>23.28446108097772</v>
+        <v>22.34068043179109</v>
       </c>
     </row>
     <row r="7">
@@ -593,7 +593,7 @@
         <v>-15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001922768732883335</v>
+        <v>0.0001770057858791518</v>
       </c>
       <c r="H7" t="n">
         <v>0.06078431372549019</v>
@@ -602,7 +602,7 @@
         <v>629.2109741</v>
       </c>
       <c r="J7" t="n">
-        <v>21.86993446195435</v>
+        <v>20.98348830920079</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>-30</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001546908464573806</v>
+        <v>0.0001424049308542673</v>
       </c>
       <c r="H8" t="n">
         <v>0.05392156862745098</v>
@@ -634,7 +634,7 @@
         <v>628.0488211000001</v>
       </c>
       <c r="J8" t="n">
-        <v>19.57972465533616</v>
+        <v>18.78610674930675</v>
       </c>
     </row>
     <row r="9">
@@ -657,7 +657,7 @@
         <v>-45</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001387592628466991</v>
+        <v>0.0001277386715736761</v>
       </c>
       <c r="H9" t="n">
         <v>0.0607843137254902</v>
@@ -666,7 +666,7 @@
         <v>629.2109741</v>
       </c>
       <c r="J9" t="n">
-        <v>18.57790835285596</v>
+        <v>17.82489670509607</v>
       </c>
     </row>
     <row r="10">
@@ -689,7 +689,7 @@
         <v>-60</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001286370154263273</v>
+        <v>0.0001184203571614204</v>
       </c>
       <c r="H10" t="n">
         <v>0.05882352941176471</v>
@@ -698,7 +698,7 @@
         <v>629.2109741</v>
       </c>
       <c r="J10" t="n">
-        <v>17.88681189864609</v>
+        <v>17.16181221379727</v>
       </c>
     </row>
     <row r="11">
@@ -721,7 +721,7 @@
         <v>60</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002480217772681082</v>
+        <v>0.0002283232967630599</v>
       </c>
       <c r="H11" t="n">
         <v>0.05588235294117647</v>
@@ -730,7 +730,7 @@
         <v>620.1898722</v>
       </c>
       <c r="J11" t="n">
-        <v>24.48066726821798</v>
+        <v>23.48840122578868</v>
       </c>
     </row>
     <row r="12">
@@ -753,7 +753,7 @@
         <v>45</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002828970791666107</v>
+        <v>0.0002604287190883961</v>
       </c>
       <c r="H12" t="n">
         <v>0.06078431372549019</v>
@@ -762,7 +762,7 @@
         <v>629.2109741</v>
       </c>
       <c r="J12" t="n">
-        <v>26.52650638016332</v>
+        <v>25.45131708009501</v>
       </c>
     </row>
     <row r="13">
@@ -785,7 +785,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003511939321919703</v>
+        <v>0.0003233012733175178</v>
       </c>
       <c r="H13" t="n">
         <v>0.06274509803921569</v>
@@ -794,7 +794,7 @@
         <v>627.4791039</v>
       </c>
       <c r="J13" t="n">
-        <v>29.47498800090617</v>
+        <v>28.2802889604809</v>
       </c>
     </row>
     <row r="14">
@@ -817,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003900334669539249</v>
+        <v>0.0003590560796868262</v>
       </c>
       <c r="H14" t="n">
         <v>0.04705882352941176</v>
@@ -826,7 +826,7 @@
         <v>634.7262492000001</v>
       </c>
       <c r="J14" t="n">
-        <v>31.42136611870082</v>
+        <v>30.14777523718091</v>
       </c>
     </row>
     <row r="15">
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0004</v>
+        <v>0.000368231046931408</v>
       </c>
       <c r="H15" t="n">
         <v>0.05196078431372549</v>
@@ -858,7 +858,7 @@
         <v>625.5157321</v>
       </c>
       <c r="J15" t="n">
-        <v>31.35870840616741</v>
+        <v>30.08765720707371</v>
       </c>
     </row>
     <row r="16">
@@ -881,7 +881,7 @@
         <v>-15</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003462547459552018</v>
+        <v>0.0003187543690201316</v>
       </c>
       <c r="H16" t="n">
         <v>0.04509803921568628</v>
@@ -890,7 +890,7 @@
         <v>570.9774127000001</v>
       </c>
       <c r="J16" t="n">
-        <v>26.63204175871662</v>
+        <v>25.55257483127543</v>
       </c>
     </row>
     <row r="17">
@@ -913,7 +913,7 @@
         <v>-30</v>
       </c>
       <c r="G17" t="n">
-        <v>0.000298142396999972</v>
+        <v>0.0002744632174548478</v>
       </c>
       <c r="H17" t="n">
         <v>0.05294117647058823</v>
@@ -922,7 +922,7 @@
         <v>569.9876601</v>
       </c>
       <c r="J17" t="n">
-        <v>24.66937747872947</v>
+        <v>23.66946251351148</v>
       </c>
     </row>
     <row r="18">
@@ -945,7 +945,7 @@
         <v>-45</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002664358862974593</v>
+        <v>0.0002452749133785275</v>
       </c>
       <c r="H18" t="n">
         <v>0.04117647058823529</v>
@@ -954,7 +954,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J18" t="n">
-        <v>22.65725472815148</v>
+        <v>21.73889640747765</v>
       </c>
     </row>
     <row r="19">
@@ -977,7 +977,7 @@
         <v>-60</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002327972090926405</v>
+        <v>0.0002143079000672322</v>
       </c>
       <c r="H19" t="n">
         <v>0.05980392156862745</v>
@@ -986,7 +986,7 @@
         <v>629.2109741</v>
       </c>
       <c r="J19" t="n">
-        <v>24.06239473638129</v>
+        <v>23.08708238337864</v>
       </c>
     </row>
     <row r="20">
@@ -1009,7 +1009,7 @@
         <v>60</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0003741760138627941</v>
+        <v>0.0003444580633032943</v>
       </c>
       <c r="H20" t="n">
         <v>0.05490196078431372</v>
@@ -1018,7 +1018,7 @@
         <v>633.5995182999999</v>
       </c>
       <c r="J20" t="n">
-        <v>30.71895828247912</v>
+        <v>29.47383784403099</v>
       </c>
     </row>
     <row r="21">
@@ -1041,7 +1041,7 @@
         <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0004436748430974416</v>
+        <v>0.0004084371299272477</v>
       </c>
       <c r="H21" t="n">
         <v>0.04019607843137254</v>
@@ -1050,7 +1050,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J21" t="n">
-        <v>29.23770835339995</v>
+        <v>28.05262688320675</v>
       </c>
     </row>
     <row r="22">
@@ -1073,7 +1073,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0005126916704440539</v>
+        <v>0.0004719724764015659</v>
       </c>
       <c r="H22" t="n">
         <v>0.05784313725490196</v>
@@ -1082,7 +1082,7 @@
         <v>634.1729088999999</v>
       </c>
       <c r="J22" t="n">
-        <v>35.99288707330076</v>
+        <v>34.53400038444831</v>
       </c>
     </row>
     <row r="23">
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0005785343876363931</v>
+        <v>0.000532585808112925</v>
       </c>
       <c r="H23" t="n">
         <v>0.04509803921568628</v>
@@ -1114,7 +1114,7 @@
         <v>570.9774127000001</v>
       </c>
       <c r="J23" t="n">
-        <v>34.42478089905404</v>
+        <v>33.02945369126397</v>
       </c>
     </row>
     <row r="24">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0005962847939999439</v>
+        <v>0.0005489264349096956</v>
       </c>
       <c r="H24" t="n">
         <v>0.05098039215686274</v>
@@ -1146,7 +1146,7 @@
         <v>620.8763273</v>
       </c>
       <c r="J24" t="n">
-        <v>38.00335187395152</v>
+        <v>36.46297574164036</v>
       </c>
     </row>
     <row r="25">
@@ -1169,7 +1169,7 @@
         <v>-15</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0005326408422384203</v>
+        <v>0.000490337237439701</v>
       </c>
       <c r="H25" t="n">
         <v>0.05</v>
@@ -1178,7 +1178,7 @@
         <v>634.7262492000001</v>
       </c>
       <c r="J25" t="n">
-        <v>36.71904341489541</v>
+        <v>35.23072369338236</v>
       </c>
     </row>
     <row r="26">
@@ -1201,7 +1201,7 @@
         <v>-30</v>
       </c>
       <c r="G26" t="n">
-        <v>0.000470130496333983</v>
+        <v>0.0004327916121486126</v>
       </c>
       <c r="H26" t="n">
         <v>0.04705882352941176</v>
@@ -1210,7 +1210,7 @@
         <v>634.7262492000001</v>
       </c>
       <c r="J26" t="n">
-        <v>34.49661949546438</v>
+        <v>33.09838047979864</v>
       </c>
     </row>
     <row r="27">
@@ -1233,7 +1233,7 @@
         <v>-45</v>
       </c>
       <c r="G27" t="n">
-        <v>0.000438444701470547</v>
+        <v>0.0004036223786100703</v>
       </c>
       <c r="H27" t="n">
         <v>0.05196078431372549</v>
@@ -1242,7 +1242,7 @@
         <v>625.5157321</v>
       </c>
       <c r="J27" t="n">
-        <v>32.82956932871252</v>
+        <v>31.49890025521258</v>
       </c>
     </row>
     <row r="28">
@@ -1265,7 +1265,7 @@
         <v>-60</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0003862297177174943</v>
+        <v>0.0003555544332778377</v>
       </c>
       <c r="H28" t="n">
         <v>0.04803921568627451</v>
@@ -1274,7 +1274,7 @@
         <v>634.7262492000001</v>
       </c>
       <c r="J28" t="n">
-        <v>31.26532705608126</v>
+        <v>29.9980608495154</v>
       </c>
     </row>
     <row r="29">
@@ -1297,7 +1297,7 @@
         <v>60</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0004533441887566565</v>
+        <v>0.0004173385131153336</v>
       </c>
       <c r="H29" t="n">
         <v>0.03823529411764706</v>
@@ -1306,7 +1306,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J29" t="n">
-        <v>29.55351161766094</v>
+        <v>28.35562980784541</v>
       </c>
     </row>
     <row r="30">
@@ -1329,7 +1329,7 @@
         <v>45</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0005547044614929231</v>
+        <v>0.0005106485114826549</v>
       </c>
       <c r="H30" t="n">
         <v>0.0392156862745098</v>
@@ -1338,7 +1338,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J30" t="n">
-        <v>32.69202007721019</v>
+        <v>31.36692623782997</v>
       </c>
     </row>
     <row r="31">
@@ -1361,7 +1361,7 @@
         <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0006741905309126777</v>
+        <v>0.0006206447125730427</v>
       </c>
       <c r="H31" t="n">
         <v>0.04803921568627451</v>
@@ -1370,7 +1370,7 @@
         <v>634.7262492000001</v>
       </c>
       <c r="J31" t="n">
-        <v>41.31032870943113</v>
+        <v>39.63591207973505</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1393,7 @@
         <v>15</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0007533087338156292</v>
+        <v>0.0006934791592887562</v>
       </c>
       <c r="H32" t="n">
         <v>0.05882352941176471</v>
@@ -1402,7 +1402,7 @@
         <v>629.2109741</v>
       </c>
       <c r="J32" t="n">
-        <v>43.28829268099359</v>
+        <v>41.53370395220288</v>
       </c>
     </row>
     <row r="33">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0007608247411938996</v>
+        <v>0.0007003982274528679</v>
       </c>
       <c r="H33" t="n">
         <v>0.03823529411764706</v>
@@ -1434,7 +1434,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J33" t="n">
-        <v>38.28896611370361</v>
+        <v>36.73701328259436</v>
       </c>
     </row>
     <row r="34">
@@ -1457,7 +1457,7 @@
         <v>-15</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0007057952015916324</v>
+        <v>0.0006497392650031274</v>
       </c>
       <c r="H34" t="n">
         <v>0.03235294117647058</v>
@@ -1466,7 +1466,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J34" t="n">
-        <v>39.52344257339631</v>
+        <v>37.92145315391672</v>
       </c>
     </row>
     <row r="35">
@@ -1489,7 +1489,7 @@
         <v>-30</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0006279409851371951</v>
+        <v>0.0005780684159205227</v>
       </c>
       <c r="H35" t="n">
         <v>0.04019607843137254</v>
@@ -1498,7 +1498,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J35" t="n">
-        <v>34.78417235986393</v>
+        <v>33.37427806782761</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         <v>-45</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0005940626390117364</v>
+        <v>0.0005468807687653169</v>
       </c>
       <c r="H36" t="n">
         <v>0.04803921568627451</v>
@@ -1530,7 +1530,7 @@
         <v>634.7262492000001</v>
       </c>
       <c r="J36" t="n">
-        <v>38.77681320939583</v>
+        <v>37.20508664819787</v>
       </c>
     </row>
     <row r="37">
@@ -1553,7 +1553,7 @@
         <v>-60</v>
       </c>
       <c r="G37" t="n">
-        <v>0.000544801725076463</v>
+        <v>0.0005015322739873576</v>
       </c>
       <c r="H37" t="n">
         <v>0.04509803921568627</v>
@@ -1562,7 +1562,7 @@
         <v>570.9774127000001</v>
       </c>
       <c r="J37" t="n">
-        <v>33.40348959609466</v>
+        <v>32.04955801973293</v>
       </c>
     </row>
     <row r="38">
@@ -1585,7 +1585,7 @@
         <v>60</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0005691005469387211</v>
+        <v>0.0005239012255212053</v>
       </c>
       <c r="H38" t="n">
         <v>0.04117647058823529</v>
@@ -1594,7 +1594,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J38" t="n">
-        <v>33.11231669683723</v>
+        <v>31.77018712641118</v>
       </c>
     </row>
     <row r="39">
@@ -1617,7 +1617,7 @@
         <v>45</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0006934415672772935</v>
+        <v>0.0006383667857606855</v>
       </c>
       <c r="H39" t="n">
         <v>0.02941176470588235</v>
@@ -1626,7 +1626,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J39" t="n">
-        <v>39.95155946964064</v>
+        <v>38.33221734266825</v>
       </c>
     </row>
     <row r="40">
@@ -1649,7 +1649,7 @@
         <v>30</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0008084520834544432</v>
+        <v>0.0007442428927107691</v>
       </c>
       <c r="H40" t="n">
         <v>0.03725490196078431</v>
@@ -1658,7 +1658,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J40" t="n">
-        <v>41.26122722793783</v>
+        <v>39.58880081085258</v>
       </c>
     </row>
     <row r="41">
@@ -1681,7 +1681,7 @@
         <v>15</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0009459031636900343</v>
+        <v>0.0008707772806532808</v>
       </c>
       <c r="H41" t="n">
         <v>0.0392156862745098</v>
@@ -1690,7 +1690,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J41" t="n">
-        <v>42.69257974977528</v>
+        <v>40.96213683801675</v>
       </c>
     </row>
     <row r="42">
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00098042352890982</v>
+        <v>0.0009025559562166213</v>
       </c>
       <c r="H42" t="n">
         <v>0.03725490196078431</v>
@@ -1722,7 +1722,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J42" t="n">
-        <v>45.43922630708636</v>
+        <v>43.59745456268145</v>
       </c>
     </row>
     <row r="43">
@@ -1745,7 +1745,7 @@
         <v>-15</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0009054663334689765</v>
+        <v>0.0008335520398360614</v>
       </c>
       <c r="H43" t="n">
         <v>0.0392156862745098</v>
@@ -1754,7 +1754,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J43" t="n">
-        <v>41.77007095234073</v>
+        <v>40.07701975640053</v>
       </c>
     </row>
     <row r="44">
@@ -1777,7 +1777,7 @@
         <v>-30</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0008288530079135941</v>
+        <v>0.0007630235271406734</v>
       </c>
       <c r="H44" t="n">
         <v>0.03431372549019608</v>
@@ -1786,7 +1786,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J44" t="n">
-        <v>41.77858797034597</v>
+        <v>40.08519155719186</v>
       </c>
     </row>
     <row r="45">
@@ -1809,7 +1809,7 @@
         <v>-45</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0008100104185279338</v>
+        <v>0.0007456774610997225</v>
       </c>
       <c r="H45" t="n">
         <v>0.03529411764705882</v>
@@ -1818,7 +1818,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J45" t="n">
-        <v>41.29989706715747</v>
+        <v>39.6259032594491</v>
       </c>
     </row>
     <row r="46">
@@ -1841,7 +1841,7 @@
         <v>-60</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0007412905815259836</v>
+        <v>0.000682415517289263</v>
       </c>
       <c r="H46" t="n">
         <v>0.03823529411764706</v>
@@ -1850,7 +1850,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J46" t="n">
-        <v>37.79108028928221</v>
+        <v>36.25930808442663</v>
       </c>
     </row>
     <row r="47">
@@ -1873,7 +1873,7 @@
         <v>60</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0006752390039225375</v>
+        <v>0.0006216099133582927</v>
       </c>
       <c r="H47" t="n">
         <v>0.03627450980392156</v>
@@ -1882,7 +1882,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J47" t="n">
-        <v>37.70652979055526</v>
+        <v>36.17818464051962</v>
       </c>
     </row>
     <row r="48">
@@ -1905,7 +1905,7 @@
         <v>45</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0007876009543926709</v>
+        <v>0.0007250478100004732</v>
       </c>
       <c r="H48" t="n">
         <v>0.02843137254901961</v>
@@ -1914,7 +1914,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J48" t="n">
-        <v>42.57767253616794</v>
+        <v>40.85188711698686</v>
       </c>
     </row>
     <row r="49">
@@ -1937,7 +1937,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0009699205467326901</v>
+        <v>0.0008928871459091553</v>
       </c>
       <c r="H49" t="n">
         <v>0.03823529411764706</v>
@@ -1946,7 +1946,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J49" t="n">
-        <v>43.23050802046901</v>
+        <v>41.4782614564479</v>
       </c>
     </row>
     <row r="50">
@@ -1969,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="G50" t="n">
-        <v>0.001099970290745562</v>
+        <v>0.001012608029386708</v>
       </c>
       <c r="H50" t="n">
         <v>0.03333333333333333</v>
@@ -1978,7 +1978,7 @@
         <v>582.8005532000001</v>
       </c>
       <c r="J50" t="n">
-        <v>48.45048183577369</v>
+        <v>46.48665595887898</v>
       </c>
     </row>
     <row r="51">
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.001145124898959764</v>
+        <v>0.001054176351027941</v>
       </c>
       <c r="H51" t="n">
         <v>0.03431372549019608</v>
@@ -2010,7 +2010,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J51" t="n">
-        <v>49.1078017993251</v>
+        <v>47.11733300981297</v>
       </c>
     </row>
     <row r="52">
@@ -2033,7 +2033,7 @@
         <v>-15</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00105194570827784</v>
+        <v>0.0009683976736853767</v>
       </c>
       <c r="H52" t="n">
         <v>0.0196078431372549</v>
@@ -2042,7 +2042,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J52" t="n">
-        <v>51.3138233925508</v>
+        <v>49.23393872675391</v>
       </c>
     </row>
     <row r="53">
@@ -2065,7 +2065,7 @@
         <v>-30</v>
       </c>
       <c r="G53" t="n">
-        <v>0.001011734305668837</v>
+        <v>0.0009313799564821429</v>
       </c>
       <c r="H53" t="n">
         <v>0.05098039215686274</v>
@@ -2074,7 +2074,7 @@
         <v>620.8763273</v>
       </c>
       <c r="J53" t="n">
-        <v>49.50159663509955</v>
+        <v>47.49516630177239</v>
       </c>
     </row>
     <row r="54">
@@ -2097,7 +2097,7 @@
         <v>-45</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0009761476747747183</v>
+        <v>0.0008986197006048851</v>
       </c>
       <c r="H54" t="n">
         <v>0.04411764705882353</v>
@@ -2106,7 +2106,7 @@
         <v>570.9774127000001</v>
       </c>
       <c r="J54" t="n">
-        <v>44.71427834223041</v>
+        <v>42.90189065178831</v>
       </c>
     </row>
     <row r="55">
@@ -2129,7 +2129,7 @@
         <v>-60</v>
       </c>
       <c r="G55" t="n">
-        <v>0.000903902428447776</v>
+        <v>0.0008321123438779167</v>
       </c>
       <c r="H55" t="n">
         <v>0.03235294117647058</v>
@@ -2138,7 +2138,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J55" t="n">
-        <v>44.72416053487405</v>
+        <v>42.91137229308759</v>
       </c>
     </row>
     <row r="56">
@@ -2161,7 +2161,7 @@
         <v>60</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0007870149562303486</v>
+        <v>0.0007245083532084437</v>
       </c>
       <c r="H56" t="n">
         <v>0.02254901960784314</v>
@@ -2170,7 +2170,7 @@
         <v>595.2473444</v>
       </c>
       <c r="J56" t="n">
-        <v>41.85454577030083</v>
+        <v>40.15807058708187</v>
       </c>
     </row>
     <row r="57">
@@ -2193,7 +2193,7 @@
         <v>45</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0009650565280170682</v>
+        <v>0.0008884094391492866</v>
       </c>
       <c r="H57" t="n">
         <v>0.02745098039215686</v>
@@ -2202,7 +2202,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J57" t="n">
-        <v>47.13083966344671</v>
+        <v>45.22050236598535</v>
       </c>
     </row>
     <row r="58">
@@ -2225,7 +2225,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="n">
-        <v>0.001131398035530378</v>
+        <v>0.001041539707798724</v>
       </c>
       <c r="H58" t="n">
         <v>0.03627450980392156</v>
@@ -2234,7 +2234,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J58" t="n">
-        <v>48.81156237094279</v>
+        <v>46.83310094716101</v>
       </c>
     </row>
     <row r="59">
@@ -2257,7 +2257,7 @@
         <v>15</v>
       </c>
       <c r="G59" t="n">
-        <v>0.001318697060630782</v>
+        <v>0.001213962998053608</v>
       </c>
       <c r="H59" t="n">
         <v>0.03333333333333333</v>
@@ -2266,7 +2266,7 @@
         <v>582.8005532000001</v>
       </c>
       <c r="J59" t="n">
-        <v>53.04935914100549</v>
+        <v>50.89912863170091</v>
       </c>
     </row>
     <row r="60">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.001364728419917574</v>
+        <v>0.001256338437108236</v>
       </c>
       <c r="H60" t="n">
         <v>0.03137254901960784</v>
@@ -2298,7 +2298,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J60" t="n">
-        <v>54.95925023919577</v>
+        <v>52.73160680398077</v>
       </c>
     </row>
     <row r="61">
@@ -2321,7 +2321,7 @@
         <v>-15</v>
       </c>
       <c r="G61" t="n">
-        <v>0.001240332085853934</v>
+        <v>0.001141821956291527</v>
       </c>
       <c r="H61" t="n">
         <v>0.02745098039215686</v>
@@ -2330,7 +2330,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J61" t="n">
-        <v>53.4337829164977</v>
+        <v>51.26797069717908</v>
       </c>
     </row>
     <row r="62">
@@ -2353,7 +2353,7 @@
         <v>-30</v>
       </c>
       <c r="G62" t="n">
-        <v>0.001193729612731538</v>
+        <v>0.001098920762622896</v>
       </c>
       <c r="H62" t="n">
         <v>0.03431372549019608</v>
@@ -2362,7 +2362,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J62" t="n">
-        <v>50.13811272855776</v>
+        <v>48.10588271836402</v>
       </c>
     </row>
     <row r="63">
@@ -2385,7 +2385,7 @@
         <v>-45</v>
       </c>
       <c r="G63" t="n">
-        <v>0.001186882035327181</v>
+        <v>0.00109261703613152</v>
       </c>
       <c r="H63" t="n">
         <v>0.03431372549019608</v>
@@ -2394,7 +2394,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J63" t="n">
-        <v>49.99279810924905</v>
+        <v>47.966458084023</v>
       </c>
     </row>
     <row r="64">
@@ -2417,7 +2417,7 @@
         <v>-60</v>
       </c>
       <c r="G64" t="n">
-        <v>0.001113891177954333</v>
+        <v>0.001025423286564458</v>
       </c>
       <c r="H64" t="n">
         <v>0.0303921568627451</v>
@@ -2426,7 +2426,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J64" t="n">
-        <v>49.64811946522354</v>
+        <v>47.63575017495621</v>
       </c>
     </row>
     <row r="65">
@@ -2449,7 +2449,7 @@
         <v>60</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0009241931755641368</v>
+        <v>0.0008507915515121115</v>
       </c>
       <c r="H65" t="n">
         <v>0.02745098039215686</v>
@@ -2458,7 +2458,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J65" t="n">
-        <v>46.12053297549009</v>
+        <v>44.25114607402549</v>
       </c>
     </row>
     <row r="66">
@@ -2481,7 +2481,7 @@
         <v>45</v>
       </c>
       <c r="G66" t="n">
-        <v>0.001103766575682907</v>
+        <v>0.00101610280432903</v>
       </c>
       <c r="H66" t="n">
         <v>0.03333333333333333</v>
@@ -2490,7 +2490,7 @@
         <v>582.8005532000001</v>
       </c>
       <c r="J66" t="n">
-        <v>48.53199120051944</v>
+        <v>46.56486153398978</v>
       </c>
     </row>
     <row r="67">
@@ -2513,7 +2513,7 @@
         <v>30</v>
       </c>
       <c r="G67" t="n">
-        <v>0.001295827747107234</v>
+        <v>0.001192910019900162</v>
       </c>
       <c r="H67" t="n">
         <v>0.02745098039215686</v>
@@ -2522,7 +2522,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J67" t="n">
-        <v>54.61523039717726</v>
+        <v>52.40153099393724</v>
       </c>
     </row>
     <row r="68">
@@ -2545,7 +2545,7 @@
         <v>15</v>
       </c>
       <c r="G68" t="n">
-        <v>0.001501013370368111</v>
+        <v>0.001381799312071727</v>
       </c>
       <c r="H68" t="n">
         <v>0.02843137254901961</v>
@@ -2554,7 +2554,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J68" t="n">
-        <v>58.7813035484325</v>
+        <v>56.39874220719972</v>
       </c>
     </row>
     <row r="69">
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001545117945527188</v>
+        <v>0.001422400996784956</v>
       </c>
       <c r="H69" t="n">
         <v>0.0303921568627451</v>
@@ -2586,7 +2586,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J69" t="n">
-        <v>58.47880641770555</v>
+        <v>56.1085060833916</v>
       </c>
     </row>
     <row r="70">
@@ -2609,7 +2609,7 @@
         <v>-15</v>
       </c>
       <c r="G70" t="n">
-        <v>0.00139847777957376</v>
+        <v>0.001287407342206891</v>
       </c>
       <c r="H70" t="n">
         <v>0.03333333333333333</v>
@@ -2618,7 +2618,7 @@
         <v>582.8005532000001</v>
       </c>
       <c r="J70" t="n">
-        <v>54.63052924520655</v>
+        <v>52.41620973928625</v>
       </c>
     </row>
     <row r="71">
@@ -2641,7 +2641,7 @@
         <v>-30</v>
       </c>
       <c r="G71" t="n">
-        <v>0.001373624228718471</v>
+        <v>0.001264527719578376</v>
       </c>
       <c r="H71" t="n">
         <v>0.03529411764705882</v>
@@ -2650,7 +2650,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J71" t="n">
-        <v>53.78348874788577</v>
+        <v>51.6035020284392</v>
       </c>
     </row>
     <row r="72">
@@ -2673,7 +2673,7 @@
         <v>-45</v>
       </c>
       <c r="G72" t="n">
-        <v>0.001397751806114225</v>
+        <v>0.001286739027289269</v>
       </c>
       <c r="H72" t="n">
         <v>0.02352941176470588</v>
@@ -2682,7 +2682,7 @@
         <v>632.9241921</v>
       </c>
       <c r="J72" t="n">
-        <v>59.31113876754304</v>
+        <v>56.90710180678378</v>
       </c>
     </row>
     <row r="73">
@@ -2705,7 +2705,7 @@
         <v>-60</v>
       </c>
       <c r="G73" t="n">
-        <v>0.001275372257211073</v>
+        <v>0.001174079153750266</v>
       </c>
       <c r="H73" t="n">
         <v>0.02745098039215686</v>
@@ -2714,7 +2714,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J73" t="n">
-        <v>54.17905448794757</v>
+        <v>51.98303444526224</v>
       </c>
     </row>
     <row r="74">
@@ -2737,7 +2737,7 @@
         <v>60</v>
       </c>
       <c r="G74" t="n">
-        <v>0.001100333737076559</v>
+        <v>0.001012942609944125</v>
       </c>
       <c r="H74" t="n">
         <v>0.02352941176470588</v>
@@ -2746,7 +2746,7 @@
         <v>632.9241921</v>
       </c>
       <c r="J74" t="n">
-        <v>52.62202833412006</v>
+        <v>50.48911867003226</v>
       </c>
     </row>
     <row r="75">
@@ -2769,7 +2769,7 @@
         <v>45</v>
       </c>
       <c r="G75" t="n">
-        <v>0.001297796316352819</v>
+        <v>0.001194722240685808</v>
       </c>
       <c r="H75" t="n">
         <v>0.02254901960784314</v>
@@ -2778,7 +2778,7 @@
         <v>595.2473444</v>
       </c>
       <c r="J75" t="n">
-        <v>53.74898540159383</v>
+        <v>51.57039719381774</v>
       </c>
     </row>
     <row r="76">
@@ -2801,7 +2801,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="n">
-        <v>0.001536174089839593</v>
+        <v>0.00141416748342634</v>
       </c>
       <c r="H76" t="n">
         <v>0.03137254901960784</v>
@@ -2810,7 +2810,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J76" t="n">
-        <v>58.30809231582764</v>
+        <v>55.94471147453245</v>
       </c>
     </row>
     <row r="77">
@@ -2833,7 +2833,7 @@
         <v>15</v>
       </c>
       <c r="G77" t="n">
-        <v>0.001733493027866694</v>
+        <v>0.001595814881249122</v>
       </c>
       <c r="H77" t="n">
         <v>0.01862745098039216</v>
@@ -2842,7 +2842,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J77" t="n">
-        <v>65.87168330933081</v>
+        <v>63.20173016673969</v>
       </c>
     </row>
     <row r="78">
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001733333333333333</v>
+        <v>0.001595667870036101</v>
       </c>
       <c r="H78" t="n">
         <v>0.03235294117647058</v>
@@ -2874,7 +2874,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J78" t="n">
-        <v>61.93822081530411</v>
+        <v>59.42770128696988</v>
       </c>
     </row>
     <row r="79">
@@ -2897,7 +2897,7 @@
         <v>-15</v>
       </c>
       <c r="G79" t="n">
-        <v>0.001617227515410651</v>
+        <v>0.001488783452814859</v>
       </c>
       <c r="H79" t="n">
         <v>0.02941176470588235</v>
@@ -2906,7 +2906,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J79" t="n">
-        <v>61.01442086078139</v>
+        <v>58.54134538226929</v>
       </c>
     </row>
     <row r="80">
@@ -2929,7 +2929,7 @@
         <v>-30</v>
       </c>
       <c r="G80" t="n">
-        <v>0.001587649371467293</v>
+        <v>0.001461554475538483</v>
       </c>
       <c r="H80" t="n">
         <v>0.03137254901960784</v>
@@ -2938,7 +2938,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J80" t="n">
-        <v>59.27695861428114</v>
+        <v>56.87430706532605</v>
       </c>
     </row>
     <row r="81">
@@ -2961,7 +2961,7 @@
         <v>-45</v>
       </c>
       <c r="G81" t="n">
-        <v>0.001663817634108196</v>
+        <v>0.001531673273276499</v>
       </c>
       <c r="H81" t="n">
         <v>0.01862745098039216</v>
@@ -2970,7 +2970,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J81" t="n">
-        <v>64.53160126485936</v>
+        <v>61.91596518365508</v>
       </c>
     </row>
     <row r="82">
@@ -2993,7 +2993,7 @@
         <v>-60</v>
       </c>
       <c r="G82" t="n">
-        <v>0.001504002094119461</v>
+        <v>0.001384550664261598</v>
       </c>
       <c r="H82" t="n">
         <v>0.03529411764705882</v>
@@ -3002,7 +3002,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J82" t="n">
-        <v>56.27454929821089</v>
+        <v>53.99359332140538</v>
       </c>
     </row>
     <row r="83">
@@ -3025,7 +3025,7 @@
         <v>60</v>
       </c>
       <c r="G83" t="n">
-        <v>0.001300755407057318</v>
+        <v>0.001197446313356015</v>
       </c>
       <c r="H83" t="n">
         <v>0.01862745098039216</v>
@@ -3034,7 +3034,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J83" t="n">
-        <v>57.05602848518377</v>
+        <v>54.74339709481203</v>
       </c>
     </row>
     <row r="84">
@@ -3057,7 +3057,7 @@
         <v>45</v>
       </c>
       <c r="G84" t="n">
-        <v>0.001519626818350852</v>
+        <v>0.001398934435665947</v>
       </c>
       <c r="H84" t="n">
         <v>0.0303921568627451</v>
@@ -3066,7 +3066,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J84" t="n">
-        <v>57.99168898985781</v>
+        <v>55.64113281026941</v>
       </c>
     </row>
     <row r="85">
@@ -3089,7 +3089,7 @@
         <v>30</v>
       </c>
       <c r="G85" t="n">
-        <v>0.001791946613144449</v>
+        <v>0.001649625943508428</v>
       </c>
       <c r="H85" t="n">
         <v>0.02058823529411765</v>
@@ -3098,7 +3098,7 @@
         <v>621.5585298</v>
       </c>
       <c r="J85" t="n">
-        <v>65.95161450094287</v>
+        <v>63.27842153623831</v>
       </c>
     </row>
     <row r="86">
@@ -3121,7 +3121,7 @@
         <v>15</v>
       </c>
       <c r="G86" t="n">
-        <v>0.001952232330606263</v>
+        <v>0.001797181387381217</v>
       </c>
       <c r="H86" t="n">
         <v>0.02254901960784314</v>
@@ -3130,7 +3130,7 @@
         <v>595.2473444</v>
       </c>
       <c r="J86" t="n">
-        <v>65.92511322102141</v>
+        <v>63.25299442312198</v>
       </c>
     </row>
     <row r="87">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.001913725490196078</v>
+        <v>0.00176173285198556</v>
       </c>
       <c r="H87" t="n">
         <v>0.0196078431372549</v>
@@ -3162,7 +3162,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J87" t="n">
-        <v>69.21174509911256</v>
+        <v>66.40641043863614</v>
       </c>
     </row>
     <row r="88">
@@ -3185,7 +3185,7 @@
         <v>-15</v>
       </c>
       <c r="G88" t="n">
-        <v>0.001801618307935792</v>
+        <v>0.001658529489254971</v>
       </c>
       <c r="H88" t="n">
         <v>0.02450980392156863</v>
@@ -3194,7 +3194,7 @@
         <v>565.6895396000001</v>
       </c>
       <c r="J88" t="n">
-        <v>60.18623946289912</v>
+        <v>57.7467323617963</v>
       </c>
     </row>
     <row r="89">
@@ -3217,7 +3217,7 @@
         <v>-30</v>
       </c>
       <c r="G89" t="n">
-        <v>0.001816257903495747</v>
+        <v>0.001672006373254207</v>
       </c>
       <c r="H89" t="n">
         <v>0.02745098039215686</v>
@@ -3226,7 +3226,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J89" t="n">
-        <v>64.65898622459349</v>
+        <v>62.03818689483574</v>
       </c>
     </row>
     <row r="90">
@@ -3249,7 +3249,7 @@
         <v>-45</v>
       </c>
       <c r="G90" t="n">
-        <v>0.001918893696396435</v>
+        <v>0.001766490586935346</v>
       </c>
       <c r="H90" t="n">
         <v>0.02058823529411765</v>
@@ -3258,7 +3258,7 @@
         <v>621.5585298</v>
       </c>
       <c r="J90" t="n">
-        <v>68.24597212207328</v>
+        <v>65.4797827887774</v>
       </c>
     </row>
     <row r="91">
@@ -3281,7 +3281,7 @@
         <v>-60</v>
       </c>
       <c r="G91" t="n">
-        <v>0.001768814389494525</v>
+        <v>0.001628330936177271</v>
       </c>
       <c r="H91" t="n">
         <v>0.02254901960784314</v>
@@ -3290,7 +3290,7 @@
         <v>595.2473444</v>
       </c>
       <c r="J91" t="n">
-        <v>62.74689958357025</v>
+        <v>60.2036021708674</v>
       </c>
     </row>
     <row r="92">
@@ -3313,7 +3313,7 @@
         <v>60</v>
       </c>
       <c r="G92" t="n">
-        <v>0.001577952673727218</v>
+        <v>0.00145262791263697</v>
       </c>
       <c r="H92" t="n">
         <v>0.01372549019607843</v>
@@ -3322,7 +3322,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J92" t="n">
-        <v>56.95106917487669</v>
+        <v>54.64269206231174</v>
       </c>
     </row>
     <row r="93">
@@ -3345,7 +3345,7 @@
         <v>45</v>
       </c>
       <c r="G93" t="n">
-        <v>0.001868988504920866</v>
+        <v>0.001720548984674444</v>
       </c>
       <c r="H93" t="n">
         <v>0.01764705882352941</v>
@@ -3354,7 +3354,7 @@
         <v>624.1998666000001</v>
       </c>
       <c r="J93" t="n">
-        <v>67.63889783246181</v>
+        <v>64.89731482203341</v>
       </c>
     </row>
     <row r="94">
@@ -3377,7 +3377,7 @@
         <v>30</v>
       </c>
       <c r="G94" t="n">
-        <v>0.002231713678738324</v>
+        <v>0.002054465660932392</v>
       </c>
       <c r="H94" t="n">
         <v>0.01470588235294118</v>
@@ -3386,7 +3386,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J94" t="n">
-        <v>68.78641968968451</v>
+        <v>65.99832459037422</v>
       </c>
     </row>
     <row r="95">
@@ -3409,7 +3409,7 @@
         <v>15</v>
       </c>
       <c r="G95" t="n">
-        <v>0.002241161889030156</v>
+        <v>0.002063163471850865</v>
       </c>
       <c r="H95" t="n">
         <v>0.01764705882352941</v>
@@ -3418,7 +3418,7 @@
         <v>624.1998666000001</v>
       </c>
       <c r="J95" t="n">
-        <v>74.07095656657238</v>
+        <v>71.06866524313756</v>
       </c>
     </row>
     <row r="96">
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00211766158310197</v>
+        <v>0.001949471854480153</v>
       </c>
       <c r="H96" t="n">
         <v>0.0196078431372549</v>
@@ -3450,7 +3450,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J96" t="n">
-        <v>72.806182152312</v>
+        <v>69.8551554732945</v>
       </c>
     </row>
     <row r="97">
@@ -3473,7 +3473,7 @@
         <v>-15</v>
       </c>
       <c r="G97" t="n">
-        <v>0.001995627669740079</v>
+        <v>0.001837130165284188</v>
       </c>
       <c r="H97" t="n">
         <v>0.02352941176470588</v>
@@ -3482,7 +3482,7 @@
         <v>632.9241921</v>
       </c>
       <c r="J97" t="n">
-        <v>70.8727234325999</v>
+        <v>68.00006493738186</v>
       </c>
     </row>
     <row r="98">
@@ -3505,7 +3505,7 @@
         <v>-30</v>
       </c>
       <c r="G98" t="n">
-        <v>0.002076003020919798</v>
+        <v>0.001911121914565157</v>
       </c>
       <c r="H98" t="n">
         <v>0.02254901960784314</v>
@@ -3514,7 +3514,7 @@
         <v>595.2473444</v>
       </c>
       <c r="J98" t="n">
-        <v>67.98174757094371</v>
+        <v>65.22626795592429</v>
       </c>
     </row>
     <row r="99">
@@ -3537,7 +3537,7 @@
         <v>-45</v>
       </c>
       <c r="G99" t="n">
-        <v>0.002235018902906094</v>
+        <v>0.002057508376321494</v>
       </c>
       <c r="H99" t="n">
         <v>0.02058823529411765</v>
@@ -3546,7 +3546,7 @@
         <v>621.5585298</v>
       </c>
       <c r="J99" t="n">
-        <v>73.65329264485351</v>
+        <v>70.6679303422713</v>
       </c>
     </row>
     <row r="100">
@@ -3569,7 +3569,7 @@
         <v>-60</v>
       </c>
       <c r="G100" t="n">
-        <v>0.002087748263191115</v>
+        <v>0.001921934321710232</v>
       </c>
       <c r="H100" t="n">
         <v>0.03431372549019608</v>
@@ -3578,7 +3578,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J100" t="n">
-        <v>66.30203685205962</v>
+        <v>63.61464034479178</v>
       </c>
     </row>
     <row r="101">
@@ -3601,7 +3601,7 @@
         <v>60</v>
       </c>
       <c r="G101" t="n">
-        <v>0.001828056787577516</v>
+        <v>0.001682868161849338</v>
       </c>
       <c r="H101" t="n">
         <v>0.0196078431372549</v>
@@ -3610,7 +3610,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J101" t="n">
-        <v>67.63921516772869</v>
+        <v>64.89761929486457</v>
       </c>
     </row>
     <row r="102">
@@ -3633,7 +3633,7 @@
         <v>45</v>
       </c>
       <c r="G102" t="n">
-        <v>0.002257257082122972</v>
+        <v>0.002077980346358692</v>
       </c>
       <c r="H102" t="n">
         <v>0.0107843137254902</v>
@@ -3642,7 +3642,7 @@
         <v>579.9059116000001</v>
       </c>
       <c r="J102" t="n">
-        <v>69.05857040519321</v>
+        <v>66.25944431924911</v>
       </c>
     </row>
     <row r="103">
@@ -3665,7 +3665,7 @@
         <v>30</v>
       </c>
       <c r="G103" t="n">
-        <v>0.002550744514422147</v>
+        <v>0.002348158307500532</v>
       </c>
       <c r="H103" t="n">
         <v>0.01568627450980392</v>
@@ -3674,7 +3674,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J103" t="n">
-        <v>73.53886931441133</v>
+        <v>70.55814489134505</v>
       </c>
     </row>
     <row r="104">
@@ -3697,7 +3697,7 @@
         <v>15</v>
       </c>
       <c r="G104" t="n">
-        <v>0.002505989748841663</v>
+        <v>0.002306958072038354</v>
       </c>
       <c r="H104" t="n">
         <v>0.02647058823529412</v>
@@ -3706,7 +3706,7 @@
         <v>631.7495402000001</v>
       </c>
       <c r="J104" t="n">
-        <v>79.27244383370363</v>
+        <v>76.05932250597382</v>
       </c>
     </row>
     <row r="105">
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.002305882352941176</v>
+        <v>0.002122743682310469</v>
       </c>
       <c r="H105" t="n">
         <v>0.01372549019607843</v>
@@ -3738,7 +3738,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J105" t="n">
-        <v>68.85091690470587</v>
+        <v>66.06020756307957</v>
       </c>
     </row>
     <row r="106">
@@ -3761,7 +3761,7 @@
         <v>-15</v>
       </c>
       <c r="G106" t="n">
-        <v>0.002176495318707758</v>
+        <v>0.002003632874622666</v>
       </c>
       <c r="H106" t="n">
         <v>0.01666666666666667</v>
@@ -3770,7 +3770,7 @@
         <v>624.1998666000001</v>
       </c>
       <c r="J106" t="n">
-        <v>72.99451168780199</v>
+        <v>70.03585151575894</v>
       </c>
     </row>
     <row r="107">
@@ -3793,7 +3793,7 @@
         <v>-30</v>
       </c>
       <c r="G107" t="n">
-        <v>0.002293913180095582</v>
+        <v>0.002111725129690879</v>
       </c>
       <c r="H107" t="n">
         <v>0.005882352941176471</v>
@@ -3802,7 +3802,7 @@
         <v>556.2479312999999</v>
       </c>
       <c r="J107" t="n">
-        <v>66.77866992158019</v>
+        <v>64.07195421829526</v>
       </c>
     </row>
     <row r="108">
@@ -3825,7 +3825,7 @@
         <v>-45</v>
       </c>
       <c r="G108" t="n">
-        <v>0.002495695640903783</v>
+        <v>0.002297481546680378</v>
       </c>
       <c r="H108" t="n">
         <v>0.02058823529411765</v>
@@ -3834,7 +3834,7 @@
         <v>621.5585298</v>
       </c>
       <c r="J108" t="n">
-        <v>77.83006202290603</v>
+        <v>74.67540423603445</v>
       </c>
     </row>
     <row r="109">
@@ -3857,7 +3857,7 @@
         <v>-60</v>
       </c>
       <c r="G109" t="n">
-        <v>0.002312448966570107</v>
+        <v>0.002128788759838907</v>
       </c>
       <c r="H109" t="n">
         <v>0.02549019607843137</v>
@@ -3866,7 +3866,7 @@
         <v>565.6895396000001</v>
       </c>
       <c r="J109" t="n">
-        <v>68.18171175513312</v>
+        <v>65.41812706407556</v>
       </c>
     </row>
     <row r="110">
@@ -3889,7 +3889,7 @@
         <v>60</v>
       </c>
       <c r="G110" t="n">
-        <v>0.002101316846052686</v>
+        <v>0.001934425255391461</v>
       </c>
       <c r="H110" t="n">
         <v>0.02058823529411765</v>
@@ -3898,7 +3898,7 @@
         <v>621.5585298</v>
       </c>
       <c r="J110" t="n">
-        <v>71.41369026191279</v>
+        <v>68.51910495363339</v>
       </c>
     </row>
     <row r="111">
@@ -3921,7 +3921,7 @@
         <v>45</v>
       </c>
       <c r="G111" t="n">
-        <v>0.002589957834406991</v>
+        <v>0.002384257212179721</v>
       </c>
       <c r="H111" t="n">
         <v>0.01372549019607843</v>
@@ -3930,7 +3930,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J111" t="n">
-        <v>72.96542284446664</v>
+        <v>70.00794172000177</v>
       </c>
     </row>
     <row r="112">
@@ -3953,7 +3953,7 @@
         <v>30</v>
       </c>
       <c r="G112" t="n">
-        <v>0.002825097603727743</v>
+        <v>0.002600721620760197</v>
       </c>
       <c r="H112" t="n">
         <v>0.01372549019607843</v>
@@ -3962,7 +3962,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J112" t="n">
-        <v>76.20769342843266</v>
+        <v>73.1187945216995</v>
       </c>
     </row>
     <row r="113">
@@ -3985,7 +3985,7 @@
         <v>15</v>
       </c>
       <c r="G113" t="n">
-        <v>0.00277426521474386</v>
+        <v>0.002553926461226297</v>
       </c>
       <c r="H113" t="n">
         <v>0.01568627450980392</v>
@@ -3994,7 +3994,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J113" t="n">
-        <v>76.69450621836305</v>
+        <v>73.58587550468297</v>
       </c>
     </row>
     <row r="114">
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0.002509816176440669</v>
+        <v>0.002310480595640328</v>
       </c>
       <c r="H114" t="n">
         <v>0.004901960784313725</v>
@@ -4026,7 +4026,7 @@
         <v>609.2439387999999</v>
       </c>
       <c r="J114" t="n">
-        <v>76.50716484382399</v>
+        <v>73.40612757039865</v>
       </c>
     </row>
     <row r="115">
@@ -4049,7 +4049,7 @@
         <v>-15</v>
       </c>
       <c r="G115" t="n">
-        <v>0.002353320230905427</v>
+        <v>0.00216641393097792</v>
       </c>
       <c r="H115" t="n">
         <v>0.01666666666666667</v>
@@ -4058,7 +4058,7 @@
         <v>624.1998666000001</v>
       </c>
       <c r="J115" t="n">
-        <v>75.90176117245224</v>
+        <v>72.8252625073288</v>
       </c>
     </row>
     <row r="116">
@@ -4081,7 +4081,7 @@
         <v>-30</v>
       </c>
       <c r="G116" t="n">
-        <v>0.002543946686612969</v>
+        <v>0.00234190037937295</v>
       </c>
       <c r="H116" t="n">
         <v>0.01568627450980392</v>
@@ -4090,7 +4090,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J116" t="n">
-        <v>73.44081204551983</v>
+        <v>70.46406214230909</v>
       </c>
     </row>
     <row r="117">
@@ -4113,7 +4113,7 @@
         <v>-45</v>
       </c>
       <c r="G117" t="n">
-        <v>0.002778563518243464</v>
+        <v>0.002557883383220517</v>
       </c>
       <c r="H117" t="n">
         <v>0.01176470588235294</v>
@@ -4122,7 +4122,7 @@
         <v>576.044748</v>
       </c>
       <c r="J117" t="n">
-        <v>76.10898348770681</v>
+        <v>73.02408555534086</v>
       </c>
     </row>
     <row r="118">
@@ -4145,7 +4145,7 @@
         <v>-60</v>
       </c>
       <c r="G118" t="n">
-        <v>0.002584013193272538</v>
+        <v>0.002378784708608293</v>
       </c>
       <c r="H118" t="n">
         <v>0.0196078431372549</v>
@@ -4154,7 +4154,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J118" t="n">
-        <v>80.41759517753796</v>
+        <v>77.15805784408906</v>
       </c>
     </row>
     <row r="119">
@@ -4177,7 +4177,7 @@
         <v>60</v>
       </c>
       <c r="G119" t="n">
-        <v>0.002336741620175784</v>
+        <v>0.002151152033013808</v>
       </c>
       <c r="H119" t="n">
         <v>0.01568627450980392</v>
@@ -4186,7 +4186,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J119" t="n">
-        <v>70.38200274875493</v>
+        <v>67.52923445773608</v>
       </c>
     </row>
     <row r="120">
@@ -4209,7 +4209,7 @@
         <v>45</v>
       </c>
       <c r="G120" t="n">
-        <v>0.002845070336752471</v>
+        <v>0.00261910807173964</v>
       </c>
       <c r="H120" t="n">
         <v>0.008823529411764706</v>
@@ -4218,7 +4218,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J120" t="n">
-        <v>75.16612751288069</v>
+        <v>72.11944602112362</v>
       </c>
     </row>
     <row r="121">
@@ -4241,7 +4241,7 @@
         <v>30</v>
       </c>
       <c r="G121" t="n">
-        <v>0.003029441588786501</v>
+        <v>0.002788836119641003</v>
       </c>
       <c r="H121" t="n">
         <v>0.01862745098039216</v>
@@ -4250,7 +4250,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J121" t="n">
-        <v>87.07875351649878</v>
+        <v>83.54922185852519</v>
       </c>
     </row>
     <row r="122">
@@ -4273,7 +4273,7 @@
         <v>15</v>
       </c>
       <c r="G122" t="n">
-        <v>0.002988893962712349</v>
+        <v>0.002751508882641333</v>
       </c>
       <c r="H122" t="n">
         <v>0.01470588235294118</v>
@@ -4282,7 +4282,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J122" t="n">
-        <v>79.60594850467639</v>
+        <v>76.37930935260086</v>
       </c>
     </row>
     <row r="123">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.002674509803921568</v>
+        <v>0.002462093862815885</v>
       </c>
       <c r="H123" t="n">
         <v>0.006862745098039216</v>
@@ -4314,7 +4314,7 @@
         <v>622.204774</v>
       </c>
       <c r="J123" t="n">
-        <v>80.65761393657553</v>
+        <v>77.38834800947637</v>
       </c>
     </row>
     <row r="124">
@@ -4337,7 +4337,7 @@
         <v>-15</v>
       </c>
       <c r="G124" t="n">
-        <v>0.002507413076924384</v>
+        <v>0.002308268356013423</v>
       </c>
       <c r="H124" t="n">
         <v>0.004901960784313725</v>
@@ -4346,7 +4346,7 @@
         <v>609.2439387999999</v>
       </c>
       <c r="J124" t="n">
-        <v>76.47012988725056</v>
+        <v>73.37059373834069</v>
       </c>
     </row>
     <row r="125">
@@ -4369,7 +4369,7 @@
         <v>-30</v>
       </c>
       <c r="G125" t="n">
-        <v>0.002768660778558504</v>
+        <v>0.002548767142716313</v>
       </c>
       <c r="H125" t="n">
         <v>0.007843137254901961</v>
@@ -4378,7 +4378,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J125" t="n">
-        <v>74.15183088799387</v>
+        <v>71.14626151490576</v>
       </c>
     </row>
     <row r="126">
@@ -4401,7 +4401,7 @@
         <v>-45</v>
       </c>
       <c r="G126" t="n">
-        <v>0.002972807687022746</v>
+        <v>0.002736700217295308</v>
       </c>
       <c r="H126" t="n">
         <v>0.02156862745098039</v>
@@ -4410,7 +4410,7 @@
         <v>623.4916102000001</v>
       </c>
       <c r="J126" t="n">
-        <v>85.20862498206544</v>
+        <v>81.75489456837026</v>
       </c>
     </row>
     <row r="127">
@@ -4433,7 +4433,7 @@
         <v>-60</v>
       </c>
       <c r="G127" t="n">
-        <v>0.002780466826066688</v>
+        <v>0.002559635525801464</v>
       </c>
       <c r="H127" t="n">
         <v>0.01568627450980392</v>
@@ -4442,7 +4442,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J127" t="n">
-        <v>76.77417046756494</v>
+        <v>73.66231075165172</v>
       </c>
     </row>
     <row r="128">
@@ -4465,7 +4465,7 @@
         <v>60</v>
       </c>
       <c r="G128" t="n">
-        <v>0.002605492084852522</v>
+        <v>0.002398557695441852</v>
       </c>
       <c r="H128" t="n">
         <v>0.00196078431372549</v>
@@ -4474,7 +4474,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J128" t="n">
-        <v>74.67284714160307</v>
+        <v>71.64615960493117</v>
       </c>
     </row>
     <row r="129">
@@ -4497,7 +4497,7 @@
         <v>45</v>
       </c>
       <c r="G129" t="n">
-        <v>0.003039192915790727</v>
+        <v>0.002797812973020345</v>
       </c>
       <c r="H129" t="n">
         <v>0.01470588235294118</v>
@@ -4506,7 +4506,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J129" t="n">
-        <v>80.26963158607404</v>
+        <v>77.0160916074242</v>
       </c>
     </row>
     <row r="130">
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="n">
-        <v>0.00322880156621891</v>
+        <v>0.002972362452656397</v>
       </c>
       <c r="H130" t="n">
         <v>0.01274509803921569</v>
@@ -4538,7 +4538,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J130" t="n">
-        <v>81.47094734126019</v>
+        <v>78.16871486509602</v>
       </c>
     </row>
     <row r="131">
@@ -4561,7 +4561,7 @@
         <v>15</v>
       </c>
       <c r="G131" t="n">
-        <v>0.003209693123963602</v>
+        <v>0.002954771648414146</v>
       </c>
       <c r="H131" t="n">
         <v>0.0009803921568627451</v>
@@ -4570,7 +4570,7 @@
         <v>555.0715562</v>
       </c>
       <c r="J131" t="n">
-        <v>78.82580170387085</v>
+        <v>75.63078396023438</v>
       </c>
     </row>
     <row r="132">
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0.002894117647058823</v>
+        <v>0.002664259927797834</v>
       </c>
       <c r="H132" t="n">
         <v>0.005882352941176471</v>
@@ -4602,7 +4602,7 @@
         <v>556.2479312999999</v>
       </c>
       <c r="J132" t="n">
-        <v>75.00952818223659</v>
+        <v>71.96919407457504</v>
       </c>
     </row>
     <row r="133">
@@ -4625,7 +4625,7 @@
         <v>-15</v>
       </c>
       <c r="G133" t="n">
-        <v>0.002724177988529244</v>
+        <v>0.002507817281859051</v>
       </c>
       <c r="H133" t="n">
         <v>0.009803921568627451</v>
@@ -4634,7 +4634,7 @@
         <v>619.4274696</v>
       </c>
       <c r="J133" t="n">
-        <v>81.03933491593162</v>
+        <v>77.7545968302778</v>
       </c>
     </row>
     <row r="134">
@@ -4657,7 +4657,7 @@
         <v>-30</v>
       </c>
       <c r="G134" t="n">
-        <v>0.003052713858072766</v>
+        <v>0.002810260049850381</v>
       </c>
       <c r="H134" t="n">
         <v>0.002941176470588235</v>
@@ -4666,7 +4666,7 @@
         <v>612.2671362999999</v>
       </c>
       <c r="J134" t="n">
-        <v>84.79394980036983</v>
+        <v>81.35702726600759</v>
       </c>
     </row>
     <row r="135">
@@ -4689,7 +4689,7 @@
         <v>-45</v>
       </c>
       <c r="G135" t="n">
-        <v>0.003172294519470443</v>
+        <v>0.002920343330198422</v>
       </c>
       <c r="H135" t="n">
         <v>0.01568627450980392</v>
@@ -4698,7 +4698,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J135" t="n">
-        <v>82.00850333487439</v>
+        <v>78.68448229582002</v>
       </c>
     </row>
     <row r="136">
@@ -4721,7 +4721,7 @@
         <v>-60</v>
       </c>
       <c r="G136" t="n">
-        <v>0.002970157866967634</v>
+        <v>0.002734260852262624</v>
       </c>
       <c r="H136" t="n">
         <v>0.004901960784313725</v>
@@ -4730,7 +4730,7 @@
         <v>609.2439387999999</v>
       </c>
       <c r="J136" t="n">
-        <v>83.22133101324908</v>
+        <v>79.84815086805663</v>
       </c>
     </row>
     <row r="137">
@@ -4753,7 +4753,7 @@
         <v>60</v>
       </c>
       <c r="G137" t="n">
-        <v>0.002825097603727743</v>
+        <v>0.002600721620760197</v>
       </c>
       <c r="H137" t="n">
         <v>0.01666666666666667</v>
@@ -4762,7 +4762,7 @@
         <v>624.1998666000001</v>
       </c>
       <c r="J137" t="n">
-        <v>83.15609248703929</v>
+        <v>79.78555663146143</v>
       </c>
     </row>
     <row r="138">
@@ -4785,7 +4785,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="n">
-        <v>0.003200009611673377</v>
+        <v>0.00294585722374264</v>
       </c>
       <c r="H138" t="n">
         <v>0.00392156862745098</v>
@@ -4794,7 +4794,7 @@
         <v>-0.003105556</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.0004403363537488238</v>
+        <v>-0.0004224883593994483</v>
       </c>
     </row>
     <row r="139">
@@ -4817,7 +4817,7 @@
         <v>30</v>
       </c>
       <c r="G139" t="n">
-        <v>0.003404906336271981</v>
+        <v>0.00313448056227204</v>
       </c>
       <c r="H139" t="n">
         <v>0.006862745098039216</v>
@@ -4826,7 +4826,7 @@
         <v>622.204774</v>
       </c>
       <c r="J139" t="n">
-        <v>91.00532213148905</v>
+        <v>87.31663628636707</v>
       </c>
     </row>
     <row r="140">
@@ -4849,7 +4849,7 @@
         <v>15</v>
       </c>
       <c r="G140" t="n">
-        <v>0.003386501008581371</v>
+        <v>0.003117537029560468</v>
       </c>
       <c r="H140" t="n">
         <v>0.005882352941176471</v>
@@ -4858,7 +4858,7 @@
         <v>556.2479312999999</v>
       </c>
       <c r="J140" t="n">
-        <v>81.13937925589956</v>
+        <v>77.85058610915613</v>
       </c>
     </row>
     <row r="141">
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0.003090235891054375</v>
+        <v>0.002844801993569913</v>
       </c>
       <c r="H141" t="n">
         <v>0.004901960784313725</v>
@@ -4890,7 +4890,7 @@
         <v>609.2439387999999</v>
       </c>
       <c r="J141" t="n">
-        <v>84.89399424195196</v>
+        <v>81.45301664238143</v>
       </c>
     </row>
     <row r="142">
@@ -4913,7 +4913,7 @@
         <v>-15</v>
       </c>
       <c r="G142" t="n">
-        <v>0.002895435164265504</v>
+        <v>0.002665472804648749</v>
       </c>
       <c r="H142" t="n">
         <v>0.01176470588235294</v>
@@ -4922,7 +4922,7 @@
         <v>576.044748</v>
       </c>
       <c r="J142" t="n">
-        <v>77.69638468966383</v>
+        <v>74.5471451978479</v>
       </c>
     </row>
     <row r="143">
@@ -4945,7 +4945,7 @@
         <v>-30</v>
       </c>
       <c r="G143" t="n">
-        <v>0.003245353345800785</v>
+        <v>0.002987599650466426</v>
       </c>
       <c r="H143" t="n">
         <v>0.01372549019607843</v>
@@ -4954,7 +4954,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J143" t="n">
-        <v>81.67950233655141</v>
+        <v>78.36881657610627</v>
       </c>
     </row>
     <row r="144">
@@ -4977,7 +4977,7 @@
         <v>-45</v>
       </c>
       <c r="G144" t="n">
-        <v>0.003327561323230812</v>
+        <v>0.003063278474454358</v>
       </c>
       <c r="H144" t="n">
         <v>0.0009803921568627451</v>
@@ -4986,7 +4986,7 @@
         <v>555.0715562</v>
       </c>
       <c r="J144" t="n">
-        <v>80.25674512061063</v>
+        <v>77.00372746441002</v>
       </c>
     </row>
     <row r="145">
@@ -5009,7 +5009,7 @@
         <v>-60</v>
       </c>
       <c r="G145" t="n">
-        <v>0.003120898538778576</v>
+        <v>0.00287302934075284</v>
       </c>
       <c r="H145" t="n">
         <v>0.01176470588235294</v>
@@ -5018,7 +5018,7 @@
         <v>576.044748</v>
       </c>
       <c r="J145" t="n">
-        <v>80.65842177247579</v>
+        <v>77.38912310165594</v>
       </c>
     </row>
     <row r="146">
@@ -5041,7 +5041,7 @@
         <v>60</v>
       </c>
       <c r="G146" t="n">
-        <v>0.003064449326257919</v>
+        <v>0.002821063459190503</v>
       </c>
       <c r="H146" t="n">
         <v>0.01372549019607843</v>
@@ -5050,7 +5050,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J146" t="n">
-        <v>79.36538312097287</v>
+        <v>76.1484947186877</v>
       </c>
     </row>
     <row r="147">
@@ -5073,7 +5073,7 @@
         <v>45</v>
       </c>
       <c r="G147" t="n">
-        <v>0.003394112549695428</v>
+        <v>0.003124544043943445</v>
       </c>
       <c r="H147" t="n">
         <v>0.01372549019607843</v>
@@ -5082,7 +5082,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J147" t="n">
-        <v>83.52834500367052</v>
+        <v>80.14272077131704</v>
       </c>
     </row>
     <row r="148">
@@ -5105,7 +5105,7 @@
         <v>30</v>
       </c>
       <c r="G148" t="n">
-        <v>0.003649352009388452</v>
+        <v>0.003359511777595867</v>
       </c>
       <c r="H148" t="n">
         <v>0.01176470588235294</v>
@@ -5114,7 +5114,7 @@
         <v>576.044748</v>
       </c>
       <c r="J148" t="n">
-        <v>87.225801163998</v>
+        <v>83.69030927685117</v>
       </c>
     </row>
     <row r="149">
@@ -5137,7 +5137,7 @@
         <v>15</v>
       </c>
       <c r="G149" t="n">
-        <v>0.003577020941487491</v>
+        <v>0.003292925415448774</v>
       </c>
       <c r="H149" t="n">
         <v>0.00196078431372549</v>
@@ -5146,7 +5146,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J149" t="n">
-        <v>87.50090935851028</v>
+        <v>83.95426661030166</v>
       </c>
     </row>
     <row r="150">
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0.003294126984113751</v>
+        <v>0.00303249957021302</v>
       </c>
       <c r="H150" t="n">
         <v>0.002941176470588235</v>
@@ -5178,7 +5178,7 @@
         <v>612.2671362999999</v>
       </c>
       <c r="J150" t="n">
-        <v>88.08481602593676</v>
+        <v>84.51450599972105</v>
       </c>
     </row>
     <row r="151">
@@ -5201,7 +5201,7 @@
         <v>-15</v>
       </c>
       <c r="G151" t="n">
-        <v>0.003163702248710028</v>
+        <v>0.002912433478054358</v>
       </c>
       <c r="H151" t="n">
         <v>0.01666666666666667</v>
@@ -5210,7 +5210,7 @@
         <v>624.1998666000001</v>
       </c>
       <c r="J151" t="n">
-        <v>88.00536338080562</v>
+        <v>84.43827377995173</v>
       </c>
     </row>
     <row r="152">
@@ -5233,7 +5233,7 @@
         <v>-30</v>
       </c>
       <c r="G152" t="n">
-        <v>0.003506049037578104</v>
+        <v>0.003227590269250601</v>
       </c>
       <c r="H152" t="n">
         <v>0.00392156862745098</v>
@@ -5242,7 +5242,7 @@
         <v>-0.003105556</v>
       </c>
       <c r="J152" t="n">
-        <v>-0.0004609238973688451</v>
+        <v>-0.0004422414355514321</v>
       </c>
     </row>
     <row r="153">
@@ -5265,7 +5265,7 @@
         <v>-45</v>
       </c>
       <c r="G153" t="n">
-        <v>0.003499524875753409</v>
+        <v>0.003221584271902958</v>
       </c>
       <c r="H153" t="n">
         <v>0.004901960784313725</v>
@@ -5274,7 +5274,7 @@
         <v>609.2439387999999</v>
       </c>
       <c r="J153" t="n">
-        <v>90.33692329626058</v>
+        <v>86.67532941965931</v>
       </c>
     </row>
     <row r="154">
@@ -5297,7 +5297,7 @@
         <v>-60</v>
       </c>
       <c r="G154" t="n">
-        <v>0.003271650741975709</v>
+        <v>0.003011808444779082</v>
       </c>
       <c r="H154" t="n">
         <v>0.00196078431372549</v>
@@ -5306,7 +5306,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J154" t="n">
-        <v>83.67607472256348</v>
+        <v>80.28446261488335</v>
       </c>
     </row>
     <row r="155">
@@ -5329,7 +5329,7 @@
         <v>60</v>
       </c>
       <c r="G155" t="n">
-        <v>0.003229858773544069</v>
+        <v>0.002973335694056815</v>
       </c>
       <c r="H155" t="n">
         <v>0.00196078431372549</v>
@@ -5338,7 +5338,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J155" t="n">
-        <v>83.13991917656543</v>
+        <v>79.77003886793821</v>
       </c>
     </row>
     <row r="156">
@@ -5361,7 +5361,7 @@
         <v>45</v>
       </c>
       <c r="G156" t="n">
-        <v>0.003549416075785779</v>
+        <v>0.003267512993954418</v>
       </c>
       <c r="H156" t="n">
         <v>0.01176470588235294</v>
@@ -5370,7 +5370,7 @@
         <v>576.044748</v>
       </c>
       <c r="J156" t="n">
-        <v>86.02094571641827</v>
+        <v>82.53428979985881</v>
       </c>
     </row>
     <row r="157">
@@ -5393,7 +5393,7 @@
         <v>30</v>
       </c>
       <c r="G157" t="n">
-        <v>0.003878643504181062</v>
+        <v>0.003570592395545743</v>
       </c>
       <c r="H157" t="n">
         <v>0.007843137254901961</v>
@@ -5402,7 +5402,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J157" t="n">
-        <v>87.76612754341271</v>
+        <v>84.20873480232888</v>
       </c>
     </row>
     <row r="158">
@@ -5425,7 +5425,7 @@
         <v>15</v>
       </c>
       <c r="G158" t="n">
-        <v>0.003753815949025986</v>
+        <v>0.003455678942244138</v>
       </c>
       <c r="H158" t="n">
         <v>0.002941176470588235</v>
@@ -5434,7 +5434,7 @@
         <v>612.2671362999999</v>
       </c>
       <c r="J158" t="n">
-        <v>94.02971160681577</v>
+        <v>90.21843927568965</v>
       </c>
     </row>
     <row r="159">
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.003450980392156863</v>
+        <v>0.003176895306859206</v>
       </c>
       <c r="H159" t="n">
         <v>0.00392156862745098</v>
@@ -5466,7 +5466,7 @@
         <v>-0.003105556</v>
       </c>
       <c r="J159" t="n">
-        <v>-0.0004572993088218568</v>
+        <v>-0.00043876376114259</v>
       </c>
     </row>
     <row r="160">
@@ -5489,7 +5489,7 @@
         <v>-15</v>
       </c>
       <c r="G160" t="n">
-        <v>0.00339763583363163</v>
+        <v>0.003127787500274606</v>
       </c>
       <c r="H160" t="n">
         <v>0.008823529411764706</v>
@@ -5498,7 +5498,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J160" t="n">
-        <v>82.14520515628087</v>
+        <v>78.8156432316847</v>
       </c>
     </row>
     <row r="161">
@@ -5521,7 +5521,7 @@
         <v>-30</v>
       </c>
       <c r="G161" t="n">
-        <v>0.003720070361023433</v>
+        <v>0.003424613509245398</v>
       </c>
       <c r="H161" t="n">
         <v>0.01274509803921569</v>
@@ -5530,7 +5530,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J161" t="n">
-        <v>87.44956746832234</v>
+        <v>83.90500574240076</v>
       </c>
     </row>
     <row r="162">
@@ -5553,7 +5553,7 @@
         <v>-45</v>
       </c>
       <c r="G162" t="n">
-        <v>0.003688151378682818</v>
+        <v>0.003395229608534724</v>
       </c>
       <c r="H162" t="n">
         <v>0.01274509803921569</v>
@@ -5562,7 +5562,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J162" t="n">
-        <v>87.07131949346598</v>
+        <v>83.54208915606236</v>
       </c>
     </row>
     <row r="163">
@@ -5585,7 +5585,7 @@
         <v>-60</v>
       </c>
       <c r="G163" t="n">
-        <v>0.003430276575674462</v>
+        <v>0.003157835836812231</v>
       </c>
       <c r="H163" t="n">
         <v>0.00392156862745098</v>
@@ -5594,7 +5594,7 @@
         <v>-0.003105556</v>
       </c>
       <c r="J163" t="n">
-        <v>-0.0004558874192178838</v>
+        <v>-0.0004374090991498717</v>
       </c>
     </row>
     <row r="164">
@@ -5617,7 +5617,7 @@
         <v>60</v>
       </c>
       <c r="G164" t="n">
-        <v>0.003412774247753345</v>
+        <v>0.003141723585476906</v>
       </c>
       <c r="H164" t="n">
         <v>0.0009803921568627451</v>
@@ -5626,7 +5626,7 @@
         <v>555.0715562</v>
       </c>
       <c r="J164" t="n">
-        <v>81.27489691681397</v>
+        <v>77.98061088167817</v>
       </c>
     </row>
     <row r="165">
@@ -5649,7 +5649,7 @@
         <v>45</v>
       </c>
       <c r="G165" t="n">
-        <v>0.003787910512607003</v>
+        <v>0.003487065634349407</v>
       </c>
       <c r="H165" t="n">
         <v>0.00196078431372549</v>
@@ -5658,7 +5658,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J165" t="n">
-        <v>90.0395982432793</v>
+        <v>86.39005573563806</v>
       </c>
     </row>
     <row r="166">
@@ -5681,7 +5681,7 @@
         <v>30</v>
       </c>
       <c r="G166" t="n">
-        <v>0.004058662495621444</v>
+        <v>0.003736313849759813</v>
       </c>
       <c r="H166" t="n">
         <v>0.005882352941176471</v>
@@ -5690,7 +5690,7 @@
         <v>556.2479312999999</v>
       </c>
       <c r="J166" t="n">
-        <v>88.82613090365612</v>
+        <v>85.22577342931126</v>
       </c>
     </row>
     <row r="167">
@@ -5713,7 +5713,7 @@
         <v>15</v>
       </c>
       <c r="G167" t="n">
-        <v>0.003940237913803928</v>
+        <v>0.003627294830397118</v>
       </c>
       <c r="H167" t="n">
         <v>0.006862745098039216</v>
@@ -5722,7 +5722,7 @@
         <v>622.204774</v>
       </c>
       <c r="J167" t="n">
-        <v>97.89989571460146</v>
+        <v>93.93175460918788</v>
       </c>
     </row>
     <row r="168">
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0.003662778687338112</v>
+        <v>0.003371872076791402</v>
       </c>
       <c r="H168" t="n">
         <v>0.01176470588235294</v>
@@ -5754,7 +5754,7 @@
         <v>576.044748</v>
       </c>
       <c r="J168" t="n">
-        <v>87.3879385841966</v>
+        <v>83.84587483957108</v>
       </c>
     </row>
     <row r="169">
@@ -5777,7 +5777,7 @@
         <v>-15</v>
       </c>
       <c r="G169" t="n">
-        <v>0.003660325858476882</v>
+        <v>0.003369614057442617</v>
       </c>
       <c r="H169" t="n">
         <v>0.008823529411764706</v>
@@ -5786,7 +5786,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J169" t="n">
-        <v>85.26163948570606</v>
+        <v>81.80576025428698</v>
       </c>
     </row>
     <row r="170">
@@ -5809,7 +5809,7 @@
         <v>-30</v>
       </c>
       <c r="G170" t="n">
-        <v>0.003943881619662483</v>
+        <v>0.003630649144454633</v>
       </c>
       <c r="H170" t="n">
         <v>0.00196078431372549</v>
@@ -5818,7 +5818,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J170" t="n">
-        <v>91.87703267559797</v>
+        <v>88.15301410190818</v>
       </c>
     </row>
     <row r="171">
@@ -5841,7 +5841,7 @@
         <v>-45</v>
       </c>
       <c r="G171" t="n">
-        <v>0.003882170722600387</v>
+        <v>0.003573839473874003</v>
       </c>
       <c r="H171" t="n">
         <v>0.009803921568627451</v>
@@ -5850,7 +5850,7 @@
         <v>619.4274696</v>
       </c>
       <c r="J171" t="n">
-        <v>96.73804615290727</v>
+        <v>92.81699787604485</v>
       </c>
     </row>
     <row r="172">
@@ -5873,7 +5873,7 @@
         <v>-60</v>
       </c>
       <c r="G172" t="n">
-        <v>0.00362282481902699</v>
+        <v>0.003335091439898492</v>
       </c>
       <c r="H172" t="n">
         <v>0.00392156862745098</v>
@@ -5882,7 +5882,7 @@
         <v>-0.003105556</v>
       </c>
       <c r="J172" t="n">
-        <v>-0.0004685076706714892</v>
+        <v>-0.000449517818510535</v>
       </c>
     </row>
     <row r="173">
@@ -5905,7 +5905,7 @@
         <v>60</v>
       </c>
       <c r="G173" t="n">
-        <v>0.003539236869199548</v>
+        <v>0.003258142244208971</v>
       </c>
       <c r="H173" t="n">
         <v>0.00392156862745098</v>
@@ -5914,7 +5914,7 @@
         <v>-0.003105556</v>
       </c>
       <c r="J173" t="n">
-        <v>-0.0004630712872385707</v>
+        <v>-0.0004443017860433401</v>
       </c>
     </row>
     <row r="174">
@@ -5937,7 +5937,7 @@
         <v>45</v>
       </c>
       <c r="G174" t="n">
-        <v>0.003937864182214791</v>
+        <v>0.003625109626226613</v>
       </c>
       <c r="H174" t="n">
         <v>0.0009803921568627451</v>
@@ -5946,7 +5946,7 @@
         <v>555.0715562</v>
       </c>
       <c r="J174" t="n">
-        <v>87.30696176366401</v>
+        <v>83.76818022325125</v>
       </c>
     </row>
     <row r="175">
@@ -5969,7 +5969,7 @@
         <v>30</v>
       </c>
       <c r="G175" t="n">
-        <v>0.004172681702151071</v>
+        <v>0.003841277379236546</v>
       </c>
       <c r="H175" t="n">
         <v>0.00392156862745098</v>
@@ -5978,7 +5978,7 @@
         <v>-0.003105556</v>
       </c>
       <c r="J175" t="n">
-        <v>-0.0005028377345553073</v>
+        <v>-0.0004824563943171239</v>
       </c>
     </row>
     <row r="176">
@@ -6001,7 +6001,7 @@
         <v>15</v>
       </c>
       <c r="G176" t="n">
-        <v>0.004075111771192592</v>
+        <v>0.003751456684671881</v>
       </c>
       <c r="H176" t="n">
         <v>0.01568627450980392</v>
@@ -6010,7 +6010,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J176" t="n">
-        <v>92.95227635925821</v>
+        <v>89.18467532178413</v>
       </c>
     </row>
     <row r="177">
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0.003850988379050062</v>
+        <v>0.003545133706345725</v>
       </c>
       <c r="H177" t="n">
         <v>0.002941176470588235</v>
@@ -6042,7 +6042,7 @@
         <v>612.2671362999999</v>
       </c>
       <c r="J177" t="n">
-        <v>95.23947381798</v>
+        <v>91.3791666321908</v>
       </c>
     </row>
     <row r="178">
@@ -6065,7 +6065,7 @@
         <v>-15</v>
       </c>
       <c r="G178" t="n">
-        <v>0.003903842289501396</v>
+        <v>0.003593789833295509</v>
       </c>
       <c r="H178" t="n">
         <v>0.00196078431372549</v>
@@ -6074,7 +6074,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J178" t="n">
-        <v>91.41089419802988</v>
+        <v>87.70576944685288</v>
       </c>
     </row>
     <row r="179">
@@ -6097,7 +6097,7 @@
         <v>-30</v>
       </c>
       <c r="G179" t="n">
-        <v>0.004119924673540503</v>
+        <v>0.003792710439540897</v>
       </c>
       <c r="H179" t="n">
         <v>0.007843137254901961</v>
@@ -6106,7 +6106,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J179" t="n">
-        <v>90.4548051239137</v>
+        <v>86.78843318577849</v>
       </c>
     </row>
     <row r="180">
@@ -6129,7 +6129,7 @@
         <v>-45</v>
       </c>
       <c r="G180" t="n">
-        <v>0.004054386131714211</v>
+        <v>0.003732377124863263</v>
       </c>
       <c r="H180" t="n">
         <v>0.007843137254901961</v>
@@ -6138,7 +6138,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J180" t="n">
-        <v>89.73011542430218</v>
+        <v>86.09311707195792</v>
       </c>
     </row>
     <row r="181">
@@ -6161,7 +6161,7 @@
         <v>-60</v>
       </c>
       <c r="G181" t="n">
-        <v>0.003773592452822641</v>
+        <v>0.003473884748988352</v>
       </c>
       <c r="H181" t="n">
         <v>0.00196078431372549</v>
@@ -6170,7 +6170,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J181" t="n">
-        <v>89.86598290566</v>
+        <v>86.22347748577772</v>
       </c>
     </row>
   </sheetData>

--- a/data/distance_angle/kkk.xlsx
+++ b/data/distance_angle/kkk.xlsx
@@ -442,7 +442,7 @@
         <v>627.4791039</v>
       </c>
       <c r="J2" t="n">
-        <v>17.83170497808674</v>
+        <v>15.56608776110486</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +474,7 @@
         <v>627.4791039</v>
       </c>
       <c r="J3" t="n">
-        <v>19.48626144864061</v>
+        <v>17.58133731723243</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>626.0367014</v>
       </c>
       <c r="J4" t="n">
-        <v>21.67302993664185</v>
+        <v>20.47483005027811</v>
       </c>
     </row>
     <row r="5">
@@ -538,7 +538,7 @@
         <v>627.4791039</v>
       </c>
       <c r="J5" t="n">
-        <v>22.32065565661843</v>
+        <v>21.95918936442203</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>629.2109741</v>
       </c>
       <c r="J7" t="n">
-        <v>20.98348830920079</v>
+        <v>20.64367644017873</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>628.0488211000001</v>
       </c>
       <c r="J8" t="n">
-        <v>18.78610674930675</v>
+        <v>17.74751126736261</v>
       </c>
     </row>
     <row r="9">
@@ -666,7 +666,7 @@
         <v>629.2109741</v>
       </c>
       <c r="J9" t="n">
-        <v>17.82489670509607</v>
+        <v>16.0823830904199</v>
       </c>
     </row>
     <row r="10">
@@ -698,7 +698,7 @@
         <v>629.2109741</v>
       </c>
       <c r="J10" t="n">
-        <v>17.16181221379727</v>
+        <v>14.98130859544047</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
         <v>620.1898722</v>
       </c>
       <c r="J11" t="n">
-        <v>23.48840122578868</v>
+        <v>20.50406931350538</v>
       </c>
     </row>
     <row r="12">
@@ -762,7 +762,7 @@
         <v>629.2109741</v>
       </c>
       <c r="J12" t="n">
-        <v>25.45131708009501</v>
+        <v>22.96326526934727</v>
       </c>
     </row>
     <row r="13">
@@ -794,7 +794,7 @@
         <v>627.4791039</v>
       </c>
       <c r="J13" t="n">
-        <v>28.2802889604809</v>
+        <v>26.7168047998517</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>634.7262492000001</v>
       </c>
       <c r="J14" t="n">
-        <v>30.14777523718091</v>
+        <v>29.65955460869219</v>
       </c>
     </row>
     <row r="15">
@@ -890,7 +890,7 @@
         <v>570.9774127000001</v>
       </c>
       <c r="J16" t="n">
-        <v>25.55257483127543</v>
+        <v>25.13877002991003</v>
       </c>
     </row>
     <row r="17">
@@ -922,7 +922,7 @@
         <v>569.9876601</v>
       </c>
       <c r="J17" t="n">
-        <v>23.66946251351148</v>
+        <v>22.36088926016901</v>
       </c>
     </row>
     <row r="18">
@@ -954,7 +954,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J18" t="n">
-        <v>21.73889640747765</v>
+        <v>19.61376078482718</v>
       </c>
     </row>
     <row r="19">
@@ -986,7 +986,7 @@
         <v>629.2109741</v>
       </c>
       <c r="J19" t="n">
-        <v>23.08708238337864</v>
+        <v>20.15374026034884</v>
       </c>
     </row>
     <row r="20">
@@ -1018,7 +1018,7 @@
         <v>633.5995182999999</v>
       </c>
       <c r="J20" t="n">
-        <v>29.47383784403099</v>
+        <v>25.72902294539791</v>
       </c>
     </row>
     <row r="21">
@@ -1050,7 +1050,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J21" t="n">
-        <v>28.05262688320675</v>
+        <v>25.31027807299214</v>
       </c>
     </row>
     <row r="22">
@@ -1082,7 +1082,7 @@
         <v>634.1729088999999</v>
       </c>
       <c r="J22" t="n">
-        <v>34.53400038444831</v>
+        <v>32.62477793344372</v>
       </c>
     </row>
     <row r="23">
@@ -1114,7 +1114,7 @@
         <v>570.9774127000001</v>
       </c>
       <c r="J23" t="n">
-        <v>33.02945369126397</v>
+        <v>32.49456643962027</v>
       </c>
     </row>
     <row r="24">
@@ -1178,7 +1178,7 @@
         <v>634.7262492000001</v>
       </c>
       <c r="J25" t="n">
-        <v>35.23072369338236</v>
+        <v>34.6601885235937</v>
       </c>
     </row>
     <row r="26">
@@ -1210,7 +1210,7 @@
         <v>634.7262492000001</v>
       </c>
       <c r="J26" t="n">
-        <v>33.09838047979864</v>
+        <v>31.26852670090133</v>
       </c>
     </row>
     <row r="27">
@@ -1242,7 +1242,7 @@
         <v>625.5157321</v>
       </c>
       <c r="J27" t="n">
-        <v>31.49890025521258</v>
+        <v>28.41965309602189</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>634.7262492000001</v>
       </c>
       <c r="J28" t="n">
-        <v>29.9980608495154</v>
+        <v>26.1866405046716</v>
       </c>
     </row>
     <row r="29">
@@ -1306,7 +1306,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J29" t="n">
-        <v>28.35562980784541</v>
+        <v>24.7528894546393</v>
       </c>
     </row>
     <row r="30">
@@ -1338,7 +1338,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J30" t="n">
-        <v>31.36692623782997</v>
+        <v>28.30058050106419</v>
       </c>
     </row>
     <row r="31">
@@ -1370,7 +1370,7 @@
         <v>634.7262492000001</v>
       </c>
       <c r="J31" t="n">
-        <v>39.63591207973505</v>
+        <v>37.44462892787777</v>
       </c>
     </row>
     <row r="32">
@@ -1402,7 +1402,7 @@
         <v>629.2109741</v>
       </c>
       <c r="J32" t="n">
-        <v>41.53370395220288</v>
+        <v>40.86109674031149</v>
       </c>
     </row>
     <row r="33">
@@ -1466,7 +1466,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J34" t="n">
-        <v>37.92145315391672</v>
+        <v>37.30734363683443</v>
       </c>
     </row>
     <row r="35">
@@ -1498,7 +1498,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J35" t="n">
-        <v>33.37427806782761</v>
+        <v>31.52917120896914</v>
       </c>
     </row>
     <row r="36">
@@ -1530,7 +1530,7 @@
         <v>634.7262492000001</v>
       </c>
       <c r="J36" t="n">
-        <v>37.20508664819787</v>
+        <v>33.56801816514986</v>
       </c>
     </row>
     <row r="37">
@@ -1562,7 +1562,7 @@
         <v>570.9774127000001</v>
       </c>
       <c r="J37" t="n">
-        <v>32.04955801973293</v>
+        <v>27.97748355823869</v>
       </c>
     </row>
     <row r="38">
@@ -1594,7 +1594,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J38" t="n">
-        <v>31.77018712641118</v>
+        <v>27.73360828951432</v>
       </c>
     </row>
     <row r="39">
@@ -1626,7 +1626,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J39" t="n">
-        <v>38.33221734266825</v>
+        <v>34.5849636162986</v>
       </c>
     </row>
     <row r="40">
@@ -1658,7 +1658,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J40" t="n">
-        <v>39.58880081085258</v>
+        <v>37.40012221946454</v>
       </c>
     </row>
     <row r="41">
@@ -1690,7 +1690,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J41" t="n">
-        <v>40.96213683801675</v>
+        <v>40.29878572723119</v>
       </c>
     </row>
     <row r="42">
@@ -1754,7 +1754,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J43" t="n">
-        <v>40.07701975640053</v>
+        <v>39.42800245348216</v>
       </c>
     </row>
     <row r="44">
@@ -1786,7 +1786,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J44" t="n">
-        <v>40.08519155719186</v>
+        <v>37.86906985620656</v>
       </c>
     </row>
     <row r="45">
@@ -1818,7 +1818,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J45" t="n">
-        <v>39.6259032594491</v>
+        <v>35.75218230241881</v>
       </c>
     </row>
     <row r="46">
@@ -1850,7 +1850,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J46" t="n">
-        <v>36.25930808442663</v>
+        <v>31.65236148157061</v>
       </c>
     </row>
     <row r="47">
@@ -1882,7 +1882,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J47" t="n">
-        <v>36.17818464051962</v>
+        <v>31.58154522205469</v>
       </c>
     </row>
     <row r="48">
@@ -1914,7 +1914,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J48" t="n">
-        <v>40.85188711698686</v>
+        <v>36.85831729920429</v>
       </c>
     </row>
     <row r="49">
@@ -1946,7 +1946,7 @@
         <v>553.7852598999999</v>
       </c>
       <c r="J49" t="n">
-        <v>41.4782614564479</v>
+        <v>39.1851234730201</v>
       </c>
     </row>
     <row r="50">
@@ -1978,7 +1978,7 @@
         <v>582.8005532000001</v>
       </c>
       <c r="J50" t="n">
-        <v>46.48665595887898</v>
+        <v>45.73383940077382</v>
       </c>
     </row>
     <row r="51">
@@ -2042,7 +2042,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J52" t="n">
-        <v>49.23393872675391</v>
+        <v>48.43663198292141</v>
       </c>
     </row>
     <row r="53">
@@ -2074,7 +2074,7 @@
         <v>620.8763273</v>
       </c>
       <c r="J53" t="n">
-        <v>47.49516630177239</v>
+        <v>44.86938194988549</v>
       </c>
     </row>
     <row r="54">
@@ -2106,7 +2106,7 @@
         <v>570.9774127000001</v>
       </c>
       <c r="J54" t="n">
-        <v>42.90189065178831</v>
+        <v>38.70791804185355</v>
       </c>
     </row>
     <row r="55">
@@ -2138,7 +2138,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J55" t="n">
-        <v>42.91137229308759</v>
+        <v>37.45924396374316</v>
       </c>
     </row>
     <row r="56">
@@ -2170,7 +2170,7 @@
         <v>595.2473444</v>
       </c>
       <c r="J56" t="n">
-        <v>40.15807058708187</v>
+        <v>35.05576454093121</v>
       </c>
     </row>
     <row r="57">
@@ -2202,7 +2202,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J57" t="n">
-        <v>45.22050236598535</v>
+        <v>40.79986855593373</v>
       </c>
     </row>
     <row r="58">
@@ -2234,7 +2234,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J58" t="n">
-        <v>46.83310094716101</v>
+        <v>44.24391907471422</v>
       </c>
     </row>
     <row r="59">
@@ -2266,7 +2266,7 @@
         <v>582.8005532000001</v>
       </c>
       <c r="J59" t="n">
-        <v>50.89912863170091</v>
+        <v>50.07485538518122</v>
       </c>
     </row>
     <row r="60">
@@ -2330,7 +2330,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J61" t="n">
-        <v>51.26797069717908</v>
+        <v>50.43772432980374</v>
       </c>
     </row>
     <row r="62">
@@ -2362,7 +2362,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J62" t="n">
-        <v>48.10588271836402</v>
+        <v>45.44633472830102</v>
       </c>
     </row>
     <row r="63">
@@ -2394,7 +2394,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J63" t="n">
-        <v>47.966458084023</v>
+        <v>43.27738708170364</v>
       </c>
     </row>
     <row r="64">
@@ -2426,7 +2426,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J64" t="n">
-        <v>47.63575017495621</v>
+        <v>41.58336338003917</v>
       </c>
     </row>
     <row r="65">
@@ -2458,7 +2458,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J65" t="n">
-        <v>44.25114607402549</v>
+        <v>38.62879204003397</v>
       </c>
     </row>
     <row r="66">
@@ -2490,7 +2490,7 @@
         <v>582.8005532000001</v>
       </c>
       <c r="J66" t="n">
-        <v>46.56486153398978</v>
+        <v>42.01280681351052</v>
       </c>
     </row>
     <row r="67">
@@ -2522,7 +2522,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J67" t="n">
-        <v>52.40153099393724</v>
+        <v>49.50449681524731</v>
       </c>
     </row>
     <row r="68">
@@ -2554,7 +2554,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J68" t="n">
-        <v>56.39874220719972</v>
+        <v>55.48540684000442</v>
       </c>
     </row>
     <row r="69">
@@ -2618,7 +2618,7 @@
         <v>582.8005532000001</v>
       </c>
       <c r="J70" t="n">
-        <v>52.41620973928625</v>
+        <v>51.56736850106613</v>
       </c>
     </row>
     <row r="71">
@@ -2650,7 +2650,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J71" t="n">
-        <v>51.6035020284392</v>
+        <v>48.75058711773211</v>
       </c>
     </row>
     <row r="72">
@@ -2682,7 +2682,7 @@
         <v>632.9241921</v>
       </c>
       <c r="J72" t="n">
-        <v>56.90710180678378</v>
+        <v>51.34401769411492</v>
       </c>
     </row>
     <row r="73">
@@ -2714,7 +2714,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J73" t="n">
-        <v>51.98303444526224</v>
+        <v>45.37830102381545</v>
       </c>
     </row>
     <row r="74">
@@ -2746,7 +2746,7 @@
         <v>632.9241921</v>
       </c>
       <c r="J74" t="n">
-        <v>50.48911867003226</v>
+        <v>44.07419555024991</v>
       </c>
     </row>
     <row r="75">
@@ -2778,7 +2778,7 @@
         <v>595.2473444</v>
       </c>
       <c r="J75" t="n">
-        <v>51.57039719381774</v>
+        <v>46.52901486710873</v>
       </c>
     </row>
     <row r="76">
@@ -2810,7 +2810,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J76" t="n">
-        <v>55.94471147453245</v>
+        <v>52.85179151237678</v>
       </c>
     </row>
     <row r="77">
@@ -2842,7 +2842,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J77" t="n">
-        <v>63.20173016673969</v>
+        <v>62.17822550741329</v>
       </c>
     </row>
     <row r="78">
@@ -2906,7 +2906,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J79" t="n">
-        <v>58.54134538226929</v>
+        <v>57.59331216223063</v>
       </c>
     </row>
     <row r="80">
@@ -2938,7 +2938,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J80" t="n">
-        <v>56.87430706532605</v>
+        <v>53.72999413529698</v>
       </c>
     </row>
     <row r="81">
@@ -2970,7 +2970,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J81" t="n">
-        <v>61.91596518365508</v>
+        <v>55.86322815615301</v>
       </c>
     </row>
     <row r="82">
@@ -3002,7 +3002,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J82" t="n">
-        <v>53.99359332140538</v>
+        <v>47.13340722108445</v>
       </c>
     </row>
     <row r="83">
@@ -3034,7 +3034,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J83" t="n">
-        <v>54.74339709481203</v>
+        <v>47.78794425805307</v>
       </c>
     </row>
     <row r="84">
@@ -3066,7 +3066,7 @@
         <v>593.5095991000001</v>
       </c>
       <c r="J84" t="n">
-        <v>55.64113281026941</v>
+        <v>50.2018063972204</v>
       </c>
     </row>
     <row r="85">
@@ -3098,7 +3098,7 @@
         <v>621.5585298</v>
       </c>
       <c r="J85" t="n">
-        <v>63.27842153623831</v>
+        <v>59.78005523878718</v>
       </c>
     </row>
     <row r="86">
@@ -3130,7 +3130,7 @@
         <v>595.2473444</v>
       </c>
       <c r="J86" t="n">
-        <v>63.25299442312198</v>
+        <v>62.22865957757875</v>
       </c>
     </row>
     <row r="87">
@@ -3194,7 +3194,7 @@
         <v>565.6895396000001</v>
       </c>
       <c r="J88" t="n">
-        <v>57.7467323617963</v>
+        <v>56.81156730417455</v>
       </c>
     </row>
     <row r="89">
@@ -3226,7 +3226,7 @@
         <v>605.2840991</v>
       </c>
       <c r="J89" t="n">
-        <v>62.03818689483574</v>
+        <v>58.60838733727918</v>
       </c>
     </row>
     <row r="90">
@@ -3258,7 +3258,7 @@
         <v>621.5585298</v>
       </c>
       <c r="J90" t="n">
-        <v>65.4797827887774</v>
+        <v>59.07865660649426</v>
       </c>
     </row>
     <row r="91">
@@ -3290,7 +3290,7 @@
         <v>595.2473444</v>
       </c>
       <c r="J91" t="n">
-        <v>60.2036021708674</v>
+        <v>52.55439993416237</v>
       </c>
     </row>
     <row r="92">
@@ -3322,7 +3322,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J92" t="n">
-        <v>54.64269206231174</v>
+        <v>47.70003435959912</v>
       </c>
     </row>
     <row r="93">
@@ -3354,7 +3354,7 @@
         <v>624.1998666000001</v>
       </c>
       <c r="J93" t="n">
-        <v>64.89731482203341</v>
+        <v>58.55312913028753</v>
       </c>
     </row>
     <row r="94">
@@ -3386,7 +3386,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J94" t="n">
-        <v>65.99832459037422</v>
+        <v>62.3495876460909</v>
       </c>
     </row>
     <row r="95">
@@ -3418,7 +3418,7 @@
         <v>624.1998666000001</v>
       </c>
       <c r="J95" t="n">
-        <v>71.06866524313756</v>
+        <v>69.91776146539986</v>
       </c>
     </row>
     <row r="96">
@@ -3482,7 +3482,7 @@
         <v>632.9241921</v>
       </c>
       <c r="J97" t="n">
-        <v>68.00006493738186</v>
+        <v>66.89885484211561</v>
       </c>
     </row>
     <row r="98">
@@ -3514,7 +3514,7 @@
         <v>595.2473444</v>
       </c>
       <c r="J98" t="n">
-        <v>65.22626795592429</v>
+        <v>61.6202143916007</v>
       </c>
     </row>
     <row r="99">
@@ -3546,7 +3546,7 @@
         <v>621.5585298</v>
       </c>
       <c r="J99" t="n">
-        <v>70.6679303422713</v>
+        <v>63.75962490972483</v>
       </c>
     </row>
     <row r="100">
@@ -3578,7 +3578,7 @@
         <v>578.9407658</v>
       </c>
       <c r="J100" t="n">
-        <v>63.61464034479178</v>
+        <v>55.53204675128029</v>
       </c>
     </row>
     <row r="101">
@@ -3610,7 +3610,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J101" t="n">
-        <v>64.89761929486457</v>
+        <v>56.65201609560408</v>
       </c>
     </row>
     <row r="102">
@@ -3642,7 +3642,7 @@
         <v>579.9059116000001</v>
       </c>
       <c r="J102" t="n">
-        <v>66.25944431924911</v>
+        <v>59.7821005378313</v>
       </c>
     </row>
     <row r="103">
@@ -3674,7 +3674,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J103" t="n">
-        <v>70.55814489134505</v>
+        <v>66.65731692968049</v>
       </c>
     </row>
     <row r="104">
@@ -3706,7 +3706,7 @@
         <v>631.7495402000001</v>
       </c>
       <c r="J104" t="n">
-        <v>76.05932250597382</v>
+        <v>74.82759877365358</v>
       </c>
     </row>
     <row r="105">
@@ -3770,7 +3770,7 @@
         <v>624.1998666000001</v>
       </c>
       <c r="J106" t="n">
-        <v>70.03585151575894</v>
+        <v>68.90167338238888</v>
       </c>
     </row>
     <row r="107">
@@ -3802,7 +3802,7 @@
         <v>556.2479312999999</v>
       </c>
       <c r="J107" t="n">
-        <v>64.07195421829526</v>
+        <v>60.52971723122452</v>
       </c>
     </row>
     <row r="108">
@@ -3834,7 +3834,7 @@
         <v>621.5585298</v>
       </c>
       <c r="J108" t="n">
-        <v>74.67540423603445</v>
+        <v>67.37533901178355</v>
       </c>
     </row>
     <row r="109">
@@ -3866,7 +3866,7 @@
         <v>565.6895396000001</v>
       </c>
       <c r="J109" t="n">
-        <v>65.41812706407556</v>
+        <v>57.10639046002028</v>
       </c>
     </row>
     <row r="110">
@@ -3898,7 +3898,7 @@
         <v>621.5585298</v>
       </c>
       <c r="J110" t="n">
-        <v>68.51910495363339</v>
+        <v>59.81337187505724</v>
       </c>
     </row>
     <row r="111">
@@ -3930,7 +3930,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J111" t="n">
-        <v>70.00794172000177</v>
+        <v>63.16415498727516</v>
       </c>
     </row>
     <row r="112">
@@ -3962,7 +3962,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J112" t="n">
-        <v>73.1187945216995</v>
+        <v>69.07640028595709</v>
       </c>
     </row>
     <row r="113">
@@ -3994,7 +3994,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J113" t="n">
-        <v>73.58587550468297</v>
+        <v>72.39420739305127</v>
       </c>
     </row>
     <row r="114">
@@ -4058,7 +4058,7 @@
         <v>624.1998666000001</v>
       </c>
       <c r="J115" t="n">
-        <v>72.8252625073288</v>
+        <v>71.64591195321779</v>
       </c>
     </row>
     <row r="116">
@@ -4090,7 +4090,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J116" t="n">
-        <v>70.46406214230909</v>
+        <v>66.56843557332166</v>
       </c>
     </row>
     <row r="117">
@@ -4122,7 +4122,7 @@
         <v>576.044748</v>
       </c>
       <c r="J117" t="n">
-        <v>73.02408555534086</v>
+        <v>65.88544877193219</v>
       </c>
     </row>
     <row r="118">
@@ -4154,7 +4154,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J118" t="n">
-        <v>77.15805784408906</v>
+        <v>67.35469778988919</v>
       </c>
     </row>
     <row r="119">
@@ -4186,7 +4186,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J119" t="n">
-        <v>67.52923445773608</v>
+        <v>58.94926992685873</v>
       </c>
     </row>
     <row r="120">
@@ -4218,7 +4218,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J120" t="n">
-        <v>72.11944602112362</v>
+        <v>65.06924434793342</v>
       </c>
     </row>
     <row r="121">
@@ -4250,7 +4250,7 @@
         <v>631.1753719999999</v>
       </c>
       <c r="J121" t="n">
-        <v>83.54922185852519</v>
+        <v>78.93017835471802</v>
       </c>
     </row>
     <row r="122">
@@ -4282,7 +4282,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J122" t="n">
-        <v>76.37930935260086</v>
+        <v>75.1424036730842</v>
       </c>
     </row>
     <row r="123">
@@ -4346,7 +4346,7 @@
         <v>609.2439387999999</v>
       </c>
       <c r="J124" t="n">
-        <v>73.37059373834069</v>
+        <v>72.18241195359177</v>
       </c>
     </row>
     <row r="125">
@@ -4378,7 +4378,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J125" t="n">
-        <v>71.14626151490576</v>
+        <v>67.21291935132392</v>
       </c>
     </row>
     <row r="126">
@@ -4410,7 +4410,7 @@
         <v>623.4916102000001</v>
       </c>
       <c r="J126" t="n">
-        <v>81.75489456837026</v>
+        <v>73.76275754739827</v>
       </c>
     </row>
     <row r="127">
@@ -4442,7 +4442,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J127" t="n">
-        <v>73.66231075165172</v>
+        <v>64.30310479312432</v>
       </c>
     </row>
     <row r="128">
@@ -4474,7 +4474,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J128" t="n">
-        <v>71.64615960493117</v>
+        <v>62.54311685433377</v>
       </c>
     </row>
     <row r="129">
@@ -4506,7 +4506,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J129" t="n">
-        <v>77.0160916074242</v>
+        <v>69.48720712661171</v>
       </c>
     </row>
     <row r="130">
@@ -4538,7 +4538,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J130" t="n">
-        <v>78.16871486509602</v>
+        <v>73.84713428580625</v>
       </c>
     </row>
     <row r="131">
@@ -4570,7 +4570,7 @@
         <v>555.0715562</v>
       </c>
       <c r="J131" t="n">
-        <v>75.63078396023438</v>
+        <v>74.40600008853359</v>
       </c>
     </row>
     <row r="132">
@@ -4634,7 +4634,7 @@
         <v>619.4274696</v>
       </c>
       <c r="J133" t="n">
-        <v>77.7545968302778</v>
+        <v>76.49541940064289</v>
       </c>
     </row>
     <row r="134">
@@ -4666,7 +4666,7 @@
         <v>612.2671362999999</v>
       </c>
       <c r="J134" t="n">
-        <v>81.35702726600759</v>
+        <v>76.85917989026008</v>
       </c>
     </row>
     <row r="135">
@@ -4698,7 +4698,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J135" t="n">
-        <v>78.68448229582002</v>
+        <v>70.99250046093997</v>
       </c>
     </row>
     <row r="136">
@@ -4730,7 +4730,7 @@
         <v>609.2439387999999</v>
       </c>
       <c r="J136" t="n">
-        <v>79.84815086805663</v>
+        <v>69.70299954499752</v>
       </c>
     </row>
     <row r="137">
@@ -4762,7 +4762,7 @@
         <v>624.1998666000001</v>
       </c>
       <c r="J137" t="n">
-        <v>79.78555663146143</v>
+        <v>69.64835825402857</v>
       </c>
     </row>
     <row r="138">
@@ -4794,7 +4794,7 @@
         <v>-0.003105556</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.0004224883593994483</v>
+        <v>-0.0003811870418953047</v>
       </c>
     </row>
     <row r="139">
@@ -4826,7 +4826,7 @@
         <v>622.204774</v>
       </c>
       <c r="J139" t="n">
-        <v>87.31663628636707</v>
+        <v>82.48931015883257</v>
       </c>
     </row>
     <row r="140">
@@ -4858,7 +4858,7 @@
         <v>556.2479312999999</v>
       </c>
       <c r="J140" t="n">
-        <v>77.85058610915613</v>
+        <v>76.5898542050801</v>
       </c>
     </row>
     <row r="141">
@@ -4922,7 +4922,7 @@
         <v>576.044748</v>
       </c>
       <c r="J142" t="n">
-        <v>74.5471451978479</v>
+        <v>73.33991004387055</v>
       </c>
     </row>
     <row r="143">
@@ -4954,7 +4954,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J143" t="n">
-        <v>78.36881657610627</v>
+        <v>74.03617331439071</v>
       </c>
     </row>
     <row r="144">
@@ -4986,7 +4986,7 @@
         <v>555.0715562</v>
       </c>
       <c r="J144" t="n">
-        <v>77.00372746441002</v>
+        <v>69.47605166872442</v>
       </c>
     </row>
     <row r="145">
@@ -5018,7 +5018,7 @@
         <v>576.044748</v>
       </c>
       <c r="J145" t="n">
-        <v>77.38912310165594</v>
+        <v>67.55640492233942</v>
       </c>
     </row>
     <row r="146">
@@ -5050,7 +5050,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J146" t="n">
-        <v>76.1484947186877</v>
+        <v>66.4734052702067</v>
       </c>
     </row>
     <row r="147">
@@ -5082,7 +5082,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J147" t="n">
-        <v>80.14272077131704</v>
+        <v>72.30818549340516</v>
       </c>
     </row>
     <row r="148">
@@ -5114,7 +5114,7 @@
         <v>576.044748</v>
       </c>
       <c r="J148" t="n">
-        <v>83.69030927685117</v>
+        <v>79.06346571328773</v>
       </c>
     </row>
     <row r="149">
@@ -5146,7 +5146,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J149" t="n">
-        <v>83.95426661030166</v>
+        <v>82.59469017435157</v>
       </c>
     </row>
     <row r="150">
@@ -5210,7 +5210,7 @@
         <v>624.1998666000001</v>
       </c>
       <c r="J151" t="n">
-        <v>84.43827377995173</v>
+        <v>83.07085921058382</v>
       </c>
     </row>
     <row r="152">
@@ -5242,7 +5242,7 @@
         <v>-0.003105556</v>
       </c>
       <c r="J152" t="n">
-        <v>-0.0004422414355514321</v>
+        <v>-0.0004177919866570167</v>
       </c>
     </row>
     <row r="153">
@@ -5274,7 +5274,7 @@
         <v>609.2439387999999</v>
       </c>
       <c r="J153" t="n">
-        <v>86.67532941965931</v>
+        <v>78.2021840169643</v>
       </c>
     </row>
     <row r="154">
@@ -5306,7 +5306,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J154" t="n">
-        <v>80.28446261488335</v>
+        <v>70.08387545959189</v>
       </c>
     </row>
     <row r="155">
@@ -5338,7 +5338,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J155" t="n">
-        <v>79.77003886793821</v>
+        <v>69.6348121086008</v>
       </c>
     </row>
     <row r="156">
@@ -5370,7 +5370,7 @@
         <v>576.044748</v>
       </c>
       <c r="J156" t="n">
-        <v>82.53428979985881</v>
+        <v>74.46596121241933</v>
       </c>
     </row>
     <row r="157">
@@ -5402,7 +5402,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J157" t="n">
-        <v>84.20873480232888</v>
+        <v>79.55322992986994</v>
       </c>
     </row>
     <row r="158">
@@ -5434,7 +5434,7 @@
         <v>612.2671362999999</v>
       </c>
       <c r="J158" t="n">
-        <v>90.21843927568965</v>
+        <v>88.75741925753169</v>
       </c>
     </row>
     <row r="159">
@@ -5498,7 +5498,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J160" t="n">
-        <v>78.8156432316847</v>
+        <v>77.53928295068263</v>
       </c>
     </row>
     <row r="161">
@@ -5530,7 +5530,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J161" t="n">
-        <v>83.90500574240076</v>
+        <v>79.2662926210793</v>
       </c>
     </row>
     <row r="162">
@@ -5562,7 +5562,7 @@
         <v>572.0068388999999</v>
       </c>
       <c r="J162" t="n">
-        <v>83.54208915606236</v>
+        <v>75.37524083366451</v>
       </c>
     </row>
     <row r="163">
@@ -5594,7 +5594,7 @@
         <v>-0.003105556</v>
       </c>
       <c r="J163" t="n">
-        <v>-0.0004374090991498717</v>
+        <v>-0.0003818338422063365</v>
       </c>
     </row>
     <row r="164">
@@ -5626,7 +5626,7 @@
         <v>555.0715562</v>
       </c>
       <c r="J164" t="n">
-        <v>77.98061088167817</v>
+        <v>68.07274089272262</v>
       </c>
     </row>
     <row r="165">
@@ -5658,7 +5658,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J165" t="n">
-        <v>86.39005573563806</v>
+        <v>77.94479791549345</v>
       </c>
     </row>
     <row r="166">
@@ -5690,7 +5690,7 @@
         <v>556.2479312999999</v>
       </c>
       <c r="J166" t="n">
-        <v>85.22577342931126</v>
+        <v>80.51404127479529</v>
       </c>
     </row>
     <row r="167">
@@ -5722,7 +5722,7 @@
         <v>622.204774</v>
       </c>
       <c r="J167" t="n">
-        <v>93.93175460918788</v>
+        <v>92.41060023180657</v>
       </c>
     </row>
     <row r="168">
@@ -5786,7 +5786,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J169" t="n">
-        <v>81.80576025428698</v>
+        <v>80.48097726877207</v>
       </c>
     </row>
     <row r="170">
@@ -5818,7 +5818,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J170" t="n">
-        <v>88.15301410190818</v>
+        <v>83.2794485788453</v>
       </c>
     </row>
     <row r="171">
@@ -5850,7 +5850,7 @@
         <v>619.4274696</v>
       </c>
       <c r="J171" t="n">
-        <v>92.81699787604485</v>
+        <v>83.74345960268488</v>
       </c>
     </row>
     <row r="172">
@@ -5882,7 +5882,7 @@
         <v>-0.003105556</v>
       </c>
       <c r="J172" t="n">
-        <v>-0.000449517818510535</v>
+        <v>-0.0003924040814781449</v>
       </c>
     </row>
     <row r="173">
@@ -5914,7 +5914,7 @@
         <v>-0.003105556</v>
       </c>
       <c r="J173" t="n">
-        <v>-0.0004443017860433401</v>
+        <v>-0.0003878507749239536</v>
       </c>
     </row>
     <row r="174">
@@ -5946,7 +5946,7 @@
         <v>555.0715562</v>
       </c>
       <c r="J174" t="n">
-        <v>83.76818022325125</v>
+        <v>75.57922985060023</v>
       </c>
     </row>
     <row r="175">
@@ -5978,7 +5978,7 @@
         <v>-0.003105556</v>
       </c>
       <c r="J175" t="n">
-        <v>-0.0004824563943171239</v>
+        <v>-0.0004557836495031236</v>
       </c>
     </row>
     <row r="176">
@@ -6010,7 +6010,7 @@
         <v>580.9016366000001</v>
       </c>
       <c r="J176" t="n">
-        <v>89.18467532178413</v>
+        <v>87.74039633620035</v>
       </c>
     </row>
     <row r="177">
@@ -6074,7 +6074,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J178" t="n">
-        <v>87.70576944685288</v>
+        <v>86.28544023368363</v>
       </c>
     </row>
     <row r="179">
@@ -6106,7 +6106,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J179" t="n">
-        <v>86.78843318577849</v>
+        <v>81.99030892327865</v>
       </c>
     </row>
     <row r="180">
@@ -6138,7 +6138,7 @@
         <v>562.2198009</v>
       </c>
       <c r="J180" t="n">
-        <v>86.09311707195792</v>
+        <v>77.67688717117504</v>
       </c>
     </row>
     <row r="181">
@@ -6170,7 +6170,7 @@
         <v>583.6656807000001</v>
       </c>
       <c r="J181" t="n">
-        <v>86.22347748577772</v>
+        <v>75.26830548512542</v>
       </c>
     </row>
   </sheetData>
